--- a/config_4.20/permission_server_config.xlsx
+++ b/config_4.20/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5317" uniqueCount="2280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8105" uniqueCount="2281">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10565,6 +10565,10 @@
   </si>
   <si>
     <t>是冲金鸡玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5及以上玩家才可兑换</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -29793,10 +29797,10 @@
   <dimension ref="A1:I1050"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C826" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1018" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A832" sqref="A832:A1050"/>
+      <selection pane="bottomRight" activeCell="G1037" sqref="G1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54567,13 +54571,13 @@
         <v>5</v>
       </c>
       <c r="E1037" s="91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1037" s="91">
         <v>1</v>
       </c>
       <c r="G1037" s="92" t="s">
-        <v>2240</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1038" spans="1:7">

--- a/config_4.20/permission_server_config.xlsx
+++ b/config_4.20/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5320" uniqueCount="2282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5317" uniqueCount="2280">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8517,10 +8517,6 @@
     <t>3dby_cpl</t>
   </si>
   <si>
-    <t>是cpl渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>必须在2020年11月10日8:30后第一次登录</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9932,10 +9928,6 @@
   </si>
   <si>
     <t>byam_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -12451,7 +12443,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C59" s="8">
         <v>22</v>
@@ -12466,7 +12458,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C60" s="8">
         <v>22</v>
@@ -12481,7 +12473,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C61" s="8">
         <v>22</v>
@@ -12496,7 +12488,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C62" s="8">
         <v>24</v>
@@ -12510,7 +12502,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C63" s="8">
         <v>22</v>
@@ -12524,7 +12516,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C64" s="8">
         <v>22</v>
@@ -12539,7 +12531,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C65" s="52">
         <v>22</v>
@@ -12554,7 +12546,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C66" s="52">
         <v>23</v>
@@ -12568,7 +12560,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C67" s="8">
         <v>24</v>
@@ -12586,7 +12578,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C68" s="8">
         <v>25</v>
@@ -12637,7 +12629,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="48" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -12673,7 +12665,7 @@
         <v>126</v>
       </c>
       <c r="B73" s="48" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C73" s="52">
         <v>22</v>
@@ -12812,7 +12804,7 @@
         <v>135</v>
       </c>
       <c r="B82" s="48" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C82" s="8">
         <v>26</v>
@@ -13998,7 +13990,7 @@
     </row>
     <row r="200" spans="1:10" s="60" customFormat="1">
       <c r="A200" s="59" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B200" s="59" t="s">
         <v>320</v>
@@ -15336,7 +15328,7 @@
         <v>1360</v>
       </c>
       <c r="B349" s="26" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C349" s="2">
         <v>226</v>
@@ -15410,10 +15402,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="26" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B356" s="26" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="C356" s="2">
         <v>343</v>
@@ -15575,7 +15567,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="26" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B383" s="26" t="s">
         <v>1711</v>
@@ -15773,10 +15765,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="26" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B407" s="26" t="s">
         <v>1823</v>
-      </c>
-      <c r="B407" s="26" t="s">
-        <v>1824</v>
       </c>
       <c r="C407" s="2">
         <v>339</v>
@@ -15784,10 +15776,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>1828</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>1829</v>
       </c>
       <c r="C409" s="2">
         <v>326</v>
@@ -15795,37 +15787,37 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="30" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B411" s="9" t="s">
         <v>1830</v>
-      </c>
-      <c r="B411" s="9" t="s">
-        <v>1831</v>
       </c>
       <c r="C411" s="8"/>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="17" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B412" s="9" t="s">
         <v>1832</v>
-      </c>
-      <c r="B412" s="9" t="s">
-        <v>1833</v>
       </c>
       <c r="C412" s="8"/>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="17" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B413" s="9" t="s">
         <v>1834</v>
-      </c>
-      <c r="B413" s="9" t="s">
-        <v>1835</v>
       </c>
       <c r="C413" s="8"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="17" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B414" s="9" t="s">
         <v>1836</v>
-      </c>
-      <c r="B414" s="9" t="s">
-        <v>1837</v>
       </c>
       <c r="C414" s="52">
         <v>22</v>
@@ -15833,10 +15825,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="17" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B415" s="9" t="s">
         <v>1838</v>
-      </c>
-      <c r="B415" s="9" t="s">
-        <v>1839</v>
       </c>
       <c r="C415" s="52">
         <v>22</v>
@@ -15844,10 +15836,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="17" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B416" s="9" t="s">
         <v>1840</v>
-      </c>
-      <c r="B416" s="9" t="s">
-        <v>1841</v>
       </c>
       <c r="C416" s="52">
         <v>22</v>
@@ -15855,10 +15847,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="17" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B417" s="9" t="s">
         <v>1842</v>
-      </c>
-      <c r="B417" s="9" t="s">
-        <v>1843</v>
       </c>
       <c r="C417" s="52">
         <v>23</v>
@@ -15866,10 +15858,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="17" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B418" s="9" t="s">
         <v>1844</v>
-      </c>
-      <c r="B418" s="9" t="s">
-        <v>1845</v>
       </c>
       <c r="C418" s="52">
         <v>23</v>
@@ -15877,10 +15869,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="17" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B419" s="9" t="s">
         <v>1846</v>
-      </c>
-      <c r="B419" s="9" t="s">
-        <v>1847</v>
       </c>
       <c r="C419" s="8">
         <v>24</v>
@@ -15888,10 +15880,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="17" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B420" s="9" t="s">
         <v>1848</v>
-      </c>
-      <c r="B420" s="9" t="s">
-        <v>1849</v>
       </c>
       <c r="C420" s="8">
         <v>25</v>
@@ -15899,10 +15891,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="17" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B421" s="9" t="s">
         <v>1850</v>
-      </c>
-      <c r="B421" s="9" t="s">
-        <v>1851</v>
       </c>
       <c r="C421" s="8">
         <v>26</v>
@@ -15910,10 +15902,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="17" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B422" s="9" t="s">
         <v>1852</v>
-      </c>
-      <c r="B422" s="9" t="s">
-        <v>1853</v>
       </c>
       <c r="C422" s="8">
         <v>26</v>
@@ -15921,10 +15913,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="17" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B423" s="9" t="s">
         <v>1854</v>
-      </c>
-      <c r="B423" s="9" t="s">
-        <v>1855</v>
       </c>
       <c r="C423" s="8">
         <v>26</v>
@@ -15932,10 +15924,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="26" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B425" s="26" t="s">
         <v>1858</v>
-      </c>
-      <c r="B425" s="26" t="s">
-        <v>1859</v>
       </c>
       <c r="C425" s="2">
         <v>342</v>
@@ -15943,10 +15935,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="26" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B427" s="26" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C427" s="2">
         <v>344</v>
@@ -15954,10 +15946,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="26" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B428" s="26" t="s">
         <v>1911</v>
-      </c>
-      <c r="B428" s="26" t="s">
-        <v>1912</v>
       </c>
       <c r="C428" s="2">
         <v>345</v>
@@ -15965,10 +15957,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="26" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B430" s="26" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C430" s="2">
         <v>346</v>
@@ -15976,10 +15968,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="26" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B432" s="26" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C432" s="2">
         <v>347</v>
@@ -15987,10 +15979,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="26" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B433" s="26" t="s">
         <v>1900</v>
-      </c>
-      <c r="B433" s="26" t="s">
-        <v>1901</v>
       </c>
       <c r="C433" s="2">
         <v>348</v>
@@ -15998,10 +15990,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="26" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B435" s="26" t="s">
         <v>1916</v>
-      </c>
-      <c r="B435" s="26" t="s">
-        <v>1917</v>
       </c>
       <c r="C435" s="2">
         <v>351</v>
@@ -16009,10 +16001,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="26" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B436" s="26" t="s">
         <v>1918</v>
-      </c>
-      <c r="B436" s="26" t="s">
-        <v>1919</v>
       </c>
       <c r="C436" s="2">
         <v>352</v>
@@ -16020,10 +16012,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="26" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B438" s="26" t="s">
         <v>1927</v>
-      </c>
-      <c r="B438" s="26" t="s">
-        <v>1928</v>
       </c>
       <c r="C438" s="2">
         <v>353</v>
@@ -16031,10 +16023,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C440" s="2">
         <v>354</v>
@@ -16042,10 +16034,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="26" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B442" s="26" t="s">
         <v>1936</v>
-      </c>
-      <c r="B442" s="26" t="s">
-        <v>1937</v>
       </c>
       <c r="C442" s="2">
         <v>355</v>
@@ -16057,10 +16049,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B444" s="26" t="s">
         <v>1964</v>
-      </c>
-      <c r="B444" s="26" t="s">
-        <v>1965</v>
       </c>
       <c r="C444" s="2">
         <v>368</v>
@@ -16068,10 +16060,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="71" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B446" s="26" t="s">
         <v>1970</v>
-      </c>
-      <c r="B446" s="26" t="s">
-        <v>1971</v>
       </c>
       <c r="C446" s="2">
         <v>356</v>
@@ -16079,10 +16071,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="71" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B447" s="26" t="s">
         <v>1972</v>
-      </c>
-      <c r="B447" s="26" t="s">
-        <v>1973</v>
       </c>
       <c r="C447" s="2">
         <v>360</v>
@@ -16090,10 +16082,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C449" s="2">
         <v>369</v>
@@ -16101,10 +16093,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="26" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B451" s="26" t="s">
         <v>1988</v>
-      </c>
-      <c r="B451" s="26" t="s">
-        <v>1989</v>
       </c>
       <c r="C451" s="2">
         <v>374</v>
@@ -16112,10 +16104,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="26" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B453" s="26" t="s">
         <v>1994</v>
-      </c>
-      <c r="B453" s="26" t="s">
-        <v>1995</v>
       </c>
       <c r="C453" s="2">
         <v>375</v>
@@ -16123,10 +16115,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="26" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B454" s="26" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C454" s="2">
         <v>376</v>
@@ -16134,10 +16126,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="26" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B455" s="26" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C455" s="2">
         <v>377</v>
@@ -16145,10 +16137,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="26" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B456" s="26" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C456" s="2">
         <v>378</v>
@@ -16156,10 +16148,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="26" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B458" s="26" t="s">
         <v>2004</v>
-      </c>
-      <c r="B458" s="26" t="s">
-        <v>2005</v>
       </c>
       <c r="C458" s="2">
         <v>379</v>
@@ -16167,10 +16159,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B460" s="2" t="s">
         <v>2019</v>
-      </c>
-      <c r="B460" s="2" t="s">
-        <v>2020</v>
       </c>
       <c r="C460" s="2">
         <v>381</v>
@@ -16178,10 +16170,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="26" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B462" s="26" t="s">
         <v>2031</v>
-      </c>
-      <c r="B462" s="26" t="s">
-        <v>2032</v>
       </c>
       <c r="C462" s="2">
         <v>385</v>
@@ -16189,10 +16181,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="26" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B463" s="26" t="s">
         <v>2033</v>
-      </c>
-      <c r="B463" s="26" t="s">
-        <v>2034</v>
       </c>
       <c r="C463" s="2">
         <v>386</v>
@@ -16200,18 +16192,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="2" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="2" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B466" s="26" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C466" s="2">
         <v>22</v>
@@ -16219,10 +16211,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="2" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B467" s="26" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C467" s="2">
         <v>23</v>
@@ -16230,10 +16222,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="2" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B468" s="26" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C468" s="2">
         <v>24</v>
@@ -16241,10 +16233,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="2" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B469" s="26" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C469" s="2">
         <v>26</v>
@@ -16252,10 +16244,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B471" s="2" t="s">
         <v>2121</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>2122</v>
       </c>
       <c r="C471" s="2">
         <v>22</v>
@@ -16263,10 +16255,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="26" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B473" s="26" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="C473" s="2">
         <v>410</v>
@@ -16274,10 +16266,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="2" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="C475" s="2">
         <v>23</v>
@@ -16285,10 +16277,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="26" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="B477" s="26" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C477" s="2">
         <v>411</v>
@@ -16296,10 +16288,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="26" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B478" s="26" t="s">
         <v>2164</v>
-      </c>
-      <c r="B478" s="26" t="s">
-        <v>2166</v>
       </c>
       <c r="C478" s="2">
         <v>412</v>
@@ -16307,10 +16299,10 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="2" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="C480" s="2">
         <v>417</v>
@@ -16318,10 +16310,10 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="C483" s="2">
         <v>432</v>
@@ -16329,10 +16321,10 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="C486" s="2">
         <v>433</v>
@@ -16340,10 +16332,10 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="C487" s="2">
         <v>434</v>
@@ -16407,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -16547,7 +16539,7 @@
         <v>1482</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="O4" s="16"/>
     </row>
@@ -22966,7 +22958,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D192" s="39" t="s">
         <v>790</v>
@@ -26218,7 +26210,7 @@
         <v>1615248000</v>
       </c>
       <c r="L289" s="71" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="72" customFormat="1">
@@ -26252,7 +26244,7 @@
         <v>1615248000</v>
       </c>
       <c r="L290" s="70" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="72" customFormat="1">
@@ -26266,7 +26258,7 @@
         <v>1625</v>
       </c>
       <c r="D291" s="101" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="E291" s="70"/>
       <c r="F291" s="70"/>
@@ -26286,7 +26278,7 @@
         <v>1615248000</v>
       </c>
       <c r="L291" s="70" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="72" customFormat="1">
@@ -26297,10 +26289,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="100" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D292" s="100" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E292" s="70"/>
       <c r="F292" s="70"/>
@@ -26320,7 +26312,7 @@
         <v>1615248000</v>
       </c>
       <c r="L292" s="70" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -26683,7 +26675,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="29" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D304" s="29" t="s">
         <v>1652</v>
@@ -27232,7 +27224,7 @@
         <v>1706</v>
       </c>
       <c r="D321" s="100" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="E321" s="101"/>
       <c r="F321" s="101"/>
@@ -27342,7 +27334,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="15" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K324" s="25">
         <v>1598916600</v>
@@ -27455,7 +27447,7 @@
         <v>1</v>
       </c>
       <c r="C328" s="25" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D328" s="25" t="s">
         <v>1789</v>
@@ -27534,7 +27526,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="29" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="K330" s="25">
         <v>0</v>
@@ -27583,7 +27575,7 @@
         <v>0</v>
       </c>
       <c r="C332" s="86" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D332" s="86" t="s">
         <v>1797</v>
@@ -27617,7 +27609,7 @@
         <v>1</v>
       </c>
       <c r="C333" s="29" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D333" s="25" t="s">
         <v>1809</v>
@@ -27632,7 +27624,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="25" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="K333" s="25">
         <v>0</v>
@@ -27649,10 +27641,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D334" s="15" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E334" s="16"/>
       <c r="F334" s="16"/>
@@ -27683,10 +27675,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D335" s="15" t="s">
         <v>1860</v>
-      </c>
-      <c r="D335" s="15" t="s">
-        <v>1861</v>
       </c>
       <c r="E335" s="16"/>
       <c r="F335" s="16"/>
@@ -27717,10 +27709,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="15" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D336" s="15" t="s">
         <v>1862</v>
-      </c>
-      <c r="D336" s="15" t="s">
-        <v>1863</v>
       </c>
       <c r="E336" s="16"/>
       <c r="F336" s="16"/>
@@ -27734,7 +27726,7 @@
         <v>1</v>
       </c>
       <c r="J336" s="15" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="K336" s="16">
         <v>1606176000</v>
@@ -27751,10 +27743,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="29" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D337" s="29" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G337" s="16">
         <v>349</v>
@@ -27783,10 +27775,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="29" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D338" s="29" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E338" s="16"/>
       <c r="F338" s="16"/>
@@ -27817,10 +27809,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="71" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D339" s="29" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G339" s="25">
         <v>357</v>
@@ -27849,10 +27841,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="71" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D340" s="29" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G340" s="25">
         <v>358</v>
@@ -27881,10 +27873,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="71" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D341" s="29" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G341" s="25">
         <v>359</v>
@@ -27913,10 +27905,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="71" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D342" s="29" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G342" s="25">
         <v>361</v>
@@ -27945,10 +27937,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="71" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D343" s="29" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G343" s="25">
         <v>362</v>
@@ -27977,10 +27969,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="71" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D344" s="29" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G344" s="25">
         <v>363</v>
@@ -28009,10 +28001,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="71" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D345" s="29" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="G345" s="25">
         <v>364</v>
@@ -28024,7 +28016,7 @@
         <v>1</v>
       </c>
       <c r="J345" s="15" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="K345" s="16">
         <v>1598889600</v>
@@ -28041,10 +28033,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="29" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D346" s="77" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="G346" s="25">
         <v>365</v>
@@ -28073,10 +28065,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="29" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D347" s="77" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G347" s="25">
         <v>366</v>
@@ -28105,10 +28097,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="100" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D348" s="100" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E348" s="16"/>
       <c r="F348" s="16"/>
@@ -28139,10 +28131,10 @@
         <v>0</v>
       </c>
       <c r="C349" s="15" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D349" s="15" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E349" s="15"/>
       <c r="F349" s="15"/>
@@ -28156,13 +28148,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="15" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K349" s="15">
         <v>1610409600</v>
       </c>
       <c r="L349" s="15" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="44" customFormat="1">
@@ -28173,10 +28165,10 @@
         <v>0</v>
       </c>
       <c r="C350" s="15" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D350" s="15" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E350" s="15"/>
       <c r="F350" s="15"/>
@@ -28190,13 +28182,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="15" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K350" s="15">
         <v>1610409600</v>
       </c>
       <c r="L350" s="15" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="44" customFormat="1">
@@ -28207,10 +28199,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="65" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D351" s="65" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="E351" s="65"/>
       <c r="F351" s="65"/>
@@ -28224,13 +28216,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="65" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K351" s="65">
         <v>1610380800</v>
       </c>
       <c r="L351" s="65" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="44" customFormat="1">
@@ -28241,10 +28233,10 @@
         <v>1</v>
       </c>
       <c r="C352" s="65" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D352" s="65" t="s">
         <v>1986</v>
-      </c>
-      <c r="D352" s="65" t="s">
-        <v>1987</v>
       </c>
       <c r="E352" s="65"/>
       <c r="F352" s="65"/>
@@ -28258,13 +28250,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="65" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K352" s="65">
         <v>1610380800</v>
       </c>
       <c r="L352" s="65" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="44" customFormat="1">
@@ -28275,10 +28267,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="105" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E353" s="15"/>
       <c r="F353" s="15"/>
@@ -28309,10 +28301,10 @@
         <v>0</v>
       </c>
       <c r="C354" s="15" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D354" s="15" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E354" s="15"/>
       <c r="F354" s="15"/>
@@ -28332,7 +28324,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="15" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="44" customFormat="1">
@@ -28343,10 +28335,10 @@
         <v>0</v>
       </c>
       <c r="C355" s="15" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E355" s="15"/>
       <c r="F355" s="15"/>
@@ -28366,7 +28358,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="15" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="44" customFormat="1">
@@ -28377,10 +28369,10 @@
         <v>0</v>
       </c>
       <c r="C356" s="15" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D356" s="15" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E356" s="15"/>
       <c r="F356" s="15"/>
@@ -28400,7 +28392,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="15" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="44" customFormat="1">
@@ -28411,10 +28403,10 @@
         <v>0</v>
       </c>
       <c r="C357" s="105" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D357" s="15" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E357" s="15"/>
       <c r="F357" s="15"/>
@@ -28445,10 +28437,10 @@
         <v>0</v>
       </c>
       <c r="C358" s="15" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D358" s="15" t="s">
         <v>2045</v>
-      </c>
-      <c r="D358" s="15" t="s">
-        <v>2046</v>
       </c>
       <c r="E358" s="15"/>
       <c r="F358" s="15"/>
@@ -28468,7 +28460,7 @@
         <v>1611590400</v>
       </c>
       <c r="L358" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="44" customFormat="1" ht="16.5">
@@ -28479,10 +28471,10 @@
         <v>0</v>
       </c>
       <c r="C359" s="107" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D359" s="15" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E359" s="15"/>
       <c r="F359" s="15"/>
@@ -28502,7 +28494,7 @@
         <v>1611590400</v>
       </c>
       <c r="L359" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="44" customFormat="1" ht="16.5">
@@ -28513,10 +28505,10 @@
         <v>0</v>
       </c>
       <c r="C360" s="107" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="E360" s="15"/>
       <c r="F360" s="15"/>
@@ -28536,7 +28528,7 @@
         <v>1611590400</v>
       </c>
       <c r="L360" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="44" customFormat="1" ht="16.5">
@@ -28547,10 +28539,10 @@
         <v>0</v>
       </c>
       <c r="C361" s="107" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="E361" s="15"/>
       <c r="F361" s="15"/>
@@ -28570,7 +28562,7 @@
         <v>1611590400</v>
       </c>
       <c r="L361" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="362" spans="1:12" s="44" customFormat="1">
@@ -28581,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="C362" s="105" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D362" s="15" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E362" s="15"/>
       <c r="F362" s="15"/>
@@ -28615,10 +28607,10 @@
         <v>0</v>
       </c>
       <c r="C363" s="30" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E363" s="16"/>
       <c r="F363" s="16"/>
@@ -28638,7 +28630,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="15" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="21" customFormat="1">
@@ -28649,10 +28641,10 @@
         <v>0</v>
       </c>
       <c r="C364" s="30" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E364" s="16"/>
       <c r="F364" s="16"/>
@@ -28672,7 +28664,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="15" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="21" customFormat="1">
@@ -28683,10 +28675,10 @@
         <v>0</v>
       </c>
       <c r="C365" s="30" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D365" s="15" t="s">
         <v>2079</v>
-      </c>
-      <c r="D365" s="15" t="s">
-        <v>2080</v>
       </c>
       <c r="E365" s="16"/>
       <c r="F365" s="16"/>
@@ -28706,7 +28698,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="15" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="21" customFormat="1">
@@ -28717,10 +28709,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="15" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D366" s="15" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E366" s="16"/>
       <c r="F366" s="16"/>
@@ -28740,7 +28732,7 @@
         <v>1615852800</v>
       </c>
       <c r="L366" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="21" customFormat="1">
@@ -28751,10 +28743,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="15" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D367" s="15" t="s">
         <v>2100</v>
-      </c>
-      <c r="D367" s="15" t="s">
-        <v>2101</v>
       </c>
       <c r="E367" s="16"/>
       <c r="F367" s="16"/>
@@ -28774,7 +28766,7 @@
         <v>1615852800</v>
       </c>
       <c r="L367" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="368" spans="1:12" s="21" customFormat="1">
@@ -28785,10 +28777,10 @@
         <v>0</v>
       </c>
       <c r="C368" s="15" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D368" s="15" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="E368" s="16"/>
       <c r="F368" s="16"/>
@@ -28808,7 +28800,7 @@
         <v>1615248000</v>
       </c>
       <c r="L368" s="15" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="369" spans="1:12" s="21" customFormat="1">
@@ -28819,10 +28811,10 @@
         <v>0</v>
       </c>
       <c r="C369" s="15" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E369" s="16"/>
       <c r="F369" s="16"/>
@@ -28842,7 +28834,7 @@
         <v>1615248000</v>
       </c>
       <c r="L369" s="15" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="370" spans="1:12" s="21" customFormat="1">
@@ -28853,10 +28845,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="15" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E370" s="16"/>
       <c r="F370" s="16"/>
@@ -28887,10 +28879,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="15" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E371" s="16"/>
       <c r="F371" s="16"/>
@@ -28921,10 +28913,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="57" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="D372" s="65" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="E372" s="64"/>
       <c r="F372" s="64"/>
@@ -28944,7 +28936,7 @@
         <v>1615824000</v>
       </c>
       <c r="L372" s="65" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="66" customFormat="1">
@@ -28955,10 +28947,10 @@
         <v>1</v>
       </c>
       <c r="C373" s="57" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D373" s="65" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E373" s="64"/>
       <c r="F373" s="64"/>
@@ -28978,7 +28970,7 @@
         <v>1615824000</v>
       </c>
       <c r="L373" s="65" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="374" spans="1:12" s="21" customFormat="1">
@@ -28989,10 +28981,10 @@
         <v>1</v>
       </c>
       <c r="C374" s="16" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D374" s="16" t="s">
         <v>2117</v>
-      </c>
-      <c r="D374" s="16" t="s">
-        <v>2118</v>
       </c>
       <c r="E374" s="16"/>
       <c r="F374" s="16"/>
@@ -29006,7 +28998,7 @@
         <v>1</v>
       </c>
       <c r="J374" s="16" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="K374" s="16">
         <v>1615248000</v>
@@ -29021,10 +29013,10 @@
         <v>1</v>
       </c>
       <c r="C375" s="15" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D375" s="15" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E375" s="16"/>
       <c r="F375" s="16"/>
@@ -29044,7 +29036,7 @@
         <v>1615824000</v>
       </c>
       <c r="L375" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="376" spans="1:12" s="21" customFormat="1">
@@ -29055,10 +29047,10 @@
         <v>1</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E376" s="16"/>
       <c r="F376" s="16"/>
@@ -29078,7 +29070,7 @@
         <v>1615824000</v>
       </c>
       <c r="L376" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="377" spans="1:12" s="21" customFormat="1">
@@ -29089,10 +29081,10 @@
         <v>1</v>
       </c>
       <c r="C377" s="15" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E377" s="16"/>
       <c r="F377" s="16"/>
@@ -29112,7 +29104,7 @@
         <v>1615824000</v>
       </c>
       <c r="L377" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="378" spans="1:12" s="21" customFormat="1">
@@ -29123,10 +29115,10 @@
         <v>1</v>
       </c>
       <c r="C378" s="15" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D378" s="15" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E378" s="16"/>
       <c r="F378" s="16"/>
@@ -29146,7 +29138,7 @@
         <v>1615824000</v>
       </c>
       <c r="L378" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -29157,10 +29149,10 @@
         <v>1</v>
       </c>
       <c r="C379" s="29" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D379" s="29" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="G379" s="25">
         <v>413</v>
@@ -29178,7 +29170,7 @@
         <v>1617638400</v>
       </c>
       <c r="L379" s="29" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -29189,10 +29181,10 @@
         <v>1</v>
       </c>
       <c r="C380" s="29" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="D380" s="29" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="G380" s="25">
         <v>414</v>
@@ -29210,7 +29202,7 @@
         <v>1617638400</v>
       </c>
       <c r="L380" s="29" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -29221,10 +29213,10 @@
         <v>1</v>
       </c>
       <c r="C381" s="29" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="D381" s="29" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="G381" s="25">
         <v>415</v>
@@ -29242,7 +29234,7 @@
         <v>1617638400</v>
       </c>
       <c r="L381" s="29" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -29253,10 +29245,10 @@
         <v>1</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="D382" s="29" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="G382" s="25">
         <v>416</v>
@@ -29274,7 +29266,7 @@
         <v>1617638400</v>
       </c>
       <c r="L382" s="29" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="383" spans="1:12" s="112" customFormat="1">
@@ -29285,10 +29277,10 @@
         <v>1</v>
       </c>
       <c r="C383" s="109" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="D383" s="109" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="E383" s="110"/>
       <c r="F383" s="110"/>
@@ -29308,7 +29300,7 @@
         <v>1618243200</v>
       </c>
       <c r="L383" s="109" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="384" spans="1:12" s="112" customFormat="1">
@@ -29319,10 +29311,10 @@
         <v>1</v>
       </c>
       <c r="C384" s="109" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="D384" s="109" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="E384" s="110"/>
       <c r="F384" s="110"/>
@@ -29342,7 +29334,7 @@
         <v>1618243200</v>
       </c>
       <c r="L384" s="109" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="385" spans="1:12" s="112" customFormat="1">
@@ -29353,10 +29345,10 @@
         <v>1</v>
       </c>
       <c r="C385" s="109" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="D385" s="109" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="E385" s="110"/>
       <c r="F385" s="110"/>
@@ -29376,7 +29368,7 @@
         <v>1618243200</v>
       </c>
       <c r="L385" s="109" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="386" spans="1:12" s="112" customFormat="1">
@@ -29387,10 +29379,10 @@
         <v>1</v>
       </c>
       <c r="C386" s="109" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="D386" s="109" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="E386" s="110"/>
       <c r="F386" s="110"/>
@@ -29410,7 +29402,7 @@
         <v>1618243200</v>
       </c>
       <c r="L386" s="109" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="387" spans="1:12" s="112" customFormat="1">
@@ -29421,10 +29413,10 @@
         <v>1</v>
       </c>
       <c r="C387" s="110" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="D387" s="110" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="E387" s="110"/>
       <c r="F387" s="110"/>
@@ -29444,7 +29436,7 @@
         <v>1618243200</v>
       </c>
       <c r="L387" s="109" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="388" spans="1:12" s="112" customFormat="1">
@@ -29455,10 +29447,10 @@
         <v>1</v>
       </c>
       <c r="C388" s="110" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="D388" s="110" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="E388" s="110"/>
       <c r="F388" s="110"/>
@@ -29478,7 +29470,7 @@
         <v>1618272000</v>
       </c>
       <c r="L388" s="110" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="389" spans="1:12" s="112" customFormat="1">
@@ -29489,10 +29481,10 @@
         <v>1</v>
       </c>
       <c r="C389" s="109" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="D389" s="109" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="E389" s="110"/>
       <c r="F389" s="110"/>
@@ -29512,7 +29504,7 @@
         <v>1618243200</v>
       </c>
       <c r="L389" s="109" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="390" spans="1:12" s="112" customFormat="1">
@@ -29523,10 +29515,10 @@
         <v>1</v>
       </c>
       <c r="C390" s="109" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="D390" s="109" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="E390" s="110"/>
       <c r="F390" s="110"/>
@@ -29540,13 +29532,13 @@
         <v>1</v>
       </c>
       <c r="J390" s="109" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="K390" s="110">
         <v>1618243200</v>
       </c>
       <c r="L390" s="109" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="391" spans="1:12" s="116" customFormat="1">
@@ -29557,10 +29549,10 @@
         <v>1</v>
       </c>
       <c r="C391" s="114" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="D391" s="114" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="E391" s="113"/>
       <c r="F391" s="113"/>
@@ -29574,13 +29566,13 @@
         <v>1</v>
       </c>
       <c r="J391" s="114" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="K391" s="113">
         <v>1618272000</v>
       </c>
       <c r="L391" s="114" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="392" spans="1:12" s="116" customFormat="1">
@@ -29591,10 +29583,10 @@
         <v>1</v>
       </c>
       <c r="C392" s="113" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="D392" s="113" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="E392" s="113"/>
       <c r="F392" s="113"/>
@@ -29614,7 +29606,7 @@
         <v>1618272000</v>
       </c>
       <c r="L392" s="114" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="393" spans="1:12" s="112" customFormat="1">
@@ -29625,10 +29617,10 @@
         <v>1</v>
       </c>
       <c r="C393" s="109" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="D393" s="109" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="E393" s="110"/>
       <c r="F393" s="110"/>
@@ -29642,13 +29634,13 @@
         <v>1</v>
       </c>
       <c r="J393" s="109" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="K393" s="110">
         <v>1618243200</v>
       </c>
       <c r="L393" s="109" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="394" spans="1:12" s="112" customFormat="1">
@@ -29659,10 +29651,10 @@
         <v>1</v>
       </c>
       <c r="C394" s="109" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="D394" s="109" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="E394" s="110"/>
       <c r="F394" s="110"/>
@@ -29676,13 +29668,13 @@
         <v>1</v>
       </c>
       <c r="J394" s="109" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="K394" s="110">
         <v>1618243200</v>
       </c>
       <c r="L394" s="109" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="395" spans="1:12" s="112" customFormat="1">
@@ -29693,10 +29685,10 @@
         <v>1</v>
       </c>
       <c r="C395" s="109" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D395" s="109" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="E395" s="110"/>
       <c r="F395" s="110"/>
@@ -29716,7 +29708,7 @@
         <v>1618243200</v>
       </c>
       <c r="L395" s="109" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="396" spans="1:12" s="112" customFormat="1">
@@ -29727,10 +29719,10 @@
         <v>1</v>
       </c>
       <c r="C396" s="109" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="D396" s="109" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="E396" s="110"/>
       <c r="F396" s="110"/>
@@ -29750,7 +29742,7 @@
         <v>1618243200</v>
       </c>
       <c r="L396" s="109" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="397" spans="1:12" s="21" customFormat="1">
@@ -29761,10 +29753,10 @@
         <v>1</v>
       </c>
       <c r="C397" s="15" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="E397" s="16"/>
       <c r="F397" s="16"/>
@@ -29798,13 +29790,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1051"/>
+  <dimension ref="A1:I1050"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1023" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C826" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1054" sqref="F1054"/>
+      <selection pane="bottomRight" activeCell="A832" sqref="A832:A1050"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -32001,7 +31993,7 @@
         <v>852</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E94" s="7">
         <v>2</v>
@@ -33299,7 +33291,7 @@
         <v>1032</v>
       </c>
       <c r="D150" s="96" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E150" s="95">
         <v>2</v>
@@ -33308,7 +33300,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="96" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
@@ -33968,7 +33960,7 @@
         <v>1032</v>
       </c>
       <c r="D179" s="79" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E179" s="13">
         <v>2</v>
@@ -33991,7 +33983,7 @@
         <v>1032</v>
       </c>
       <c r="D180" s="79" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E180" s="13">
         <v>2</v>
@@ -34023,7 +34015,7 @@
         <v>6</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="7" customFormat="1">
@@ -34037,7 +34029,7 @@
         <v>1032</v>
       </c>
       <c r="D182" s="79" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E182" s="13">
         <v>2</v>
@@ -34046,7 +34038,7 @@
         <v>7</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="7" customFormat="1">
@@ -34469,7 +34461,7 @@
         <v>1032</v>
       </c>
       <c r="D200" s="90" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E200" s="88">
         <v>2</v>
@@ -34494,7 +34486,7 @@
         <v>1032</v>
       </c>
       <c r="D201" s="90" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E201" s="88">
         <v>2</v>
@@ -43999,7 +43991,7 @@
         <v>1140</v>
       </c>
       <c r="D603" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E603" s="13">
         <v>2</v>
@@ -44149,7 +44141,7 @@
         <v>1140</v>
       </c>
       <c r="D609" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E609" s="13">
         <v>2</v>
@@ -44299,7 +44291,7 @@
         <v>1140</v>
       </c>
       <c r="D615" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E615" s="13">
         <v>2</v>
@@ -44449,7 +44441,7 @@
         <v>1140</v>
       </c>
       <c r="D621" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E621" s="13">
         <v>2</v>
@@ -44599,7 +44591,7 @@
         <v>1140</v>
       </c>
       <c r="D627" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E627" s="13">
         <v>2</v>
@@ -44749,7 +44741,7 @@
         <v>1140</v>
       </c>
       <c r="D633" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E633" s="13">
         <v>2</v>
@@ -47355,7 +47347,7 @@
         <v>2</v>
       </c>
       <c r="G738" s="18" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="H738" s="7"/>
       <c r="I738" s="7"/>
@@ -47555,7 +47547,7 @@
         <v>2</v>
       </c>
       <c r="G746" s="18" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="H746" s="7"/>
       <c r="I746" s="7"/>
@@ -49096,7 +49088,7 @@
         <v>1032</v>
       </c>
       <c r="D808" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E808" s="8">
         <v>5</v>
@@ -49171,7 +49163,7 @@
         <v>1032</v>
       </c>
       <c r="D811" s="9" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E811" s="8">
         <v>5</v>
@@ -49521,7 +49513,7 @@
         <v>1032</v>
       </c>
       <c r="D825" s="8" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E825" s="8">
         <v>2</v>
@@ -49621,7 +49613,7 @@
         <v>1032</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E829" s="7">
         <v>2</v>
@@ -49630,7 +49622,7 @@
         <v>4</v>
       </c>
       <c r="G829" s="9" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="H829" s="7"/>
       <c r="I829" s="7"/>
@@ -49671,7 +49663,7 @@
         <v>1032</v>
       </c>
       <c r="D831" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E831" s="8">
         <v>5</v>
@@ -49721,7 +49713,7 @@
         <v>1032</v>
       </c>
       <c r="D833" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E833" s="8">
         <v>5</v>
@@ -49846,7 +49838,7 @@
         <v>1032</v>
       </c>
       <c r="D838" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E838" s="8">
         <v>5</v>
@@ -49896,7 +49888,7 @@
         <v>1032</v>
       </c>
       <c r="D840" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E840" s="8">
         <v>2</v>
@@ -49946,7 +49938,7 @@
         <v>1032</v>
       </c>
       <c r="D842" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E842" s="8">
         <v>2</v>
@@ -49996,7 +49988,7 @@
         <v>1032</v>
       </c>
       <c r="D844" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E844" s="8">
         <v>5</v>
@@ -50030,7 +50022,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="92" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="H845" s="7"/>
       <c r="I845" s="7"/>
@@ -50055,7 +50047,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="92" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H846" s="7"/>
       <c r="I846" s="7"/>
@@ -50080,7 +50072,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="91" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H847" s="7"/>
       <c r="I847" s="7"/>
@@ -50089,23 +50081,23 @@
       <c r="A848" s="7">
         <v>847</v>
       </c>
-      <c r="B848" s="91">
-        <v>337</v>
-      </c>
-      <c r="C848" s="92" t="s">
+      <c r="B848" s="13">
+        <v>338</v>
+      </c>
+      <c r="C848" s="13" t="s">
         <v>1032</v>
       </c>
-      <c r="D848" s="92" t="s">
-        <v>2157</v>
-      </c>
-      <c r="E848" s="91">
-        <v>2</v>
-      </c>
-      <c r="F848" s="91">
-        <v>2</v>
-      </c>
-      <c r="G848" s="92" t="s">
-        <v>1811</v>
+      <c r="D848" s="13" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E848" s="13">
+        <v>5</v>
+      </c>
+      <c r="F848" s="13">
+        <v>1</v>
+      </c>
+      <c r="G848" s="13" t="s">
+        <v>1818</v>
       </c>
       <c r="H848" s="7"/>
       <c r="I848" s="7"/>
@@ -50120,8 +50112,8 @@
       <c r="C849" s="13" t="s">
         <v>1032</v>
       </c>
-      <c r="D849" s="13" t="s">
-        <v>1885</v>
+      <c r="D849" s="14" t="s">
+        <v>2147</v>
       </c>
       <c r="E849" s="13">
         <v>5</v>
@@ -50130,7 +50122,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="13" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H849" s="7"/>
       <c r="I849" s="7"/>
@@ -50139,181 +50131,181 @@
       <c r="A850" s="7">
         <v>849</v>
       </c>
-      <c r="B850" s="13">
-        <v>338</v>
-      </c>
-      <c r="C850" s="13" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D850" s="14" t="s">
-        <v>2148</v>
-      </c>
-      <c r="E850" s="13">
-        <v>5</v>
-      </c>
-      <c r="F850" s="13">
-        <v>1</v>
-      </c>
-      <c r="G850" s="13" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H850" s="7"/>
-      <c r="I850" s="7"/>
+      <c r="B850" s="7">
+        <v>339</v>
+      </c>
+      <c r="C850" s="9" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D850" s="9" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E850" s="7">
+        <v>2</v>
+      </c>
+      <c r="F850" s="7">
+        <v>1</v>
+      </c>
+      <c r="G850" s="9" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H850" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="I850" s="7" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="851" spans="1:9">
       <c r="A851" s="7">
         <v>850</v>
       </c>
       <c r="B851" s="7">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C851" s="9" t="s">
-        <v>1826</v>
+        <v>1144</v>
       </c>
       <c r="D851" s="9" t="s">
-        <v>1825</v>
+        <v>1884</v>
       </c>
       <c r="E851" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F851" s="7">
         <v>1</v>
       </c>
       <c r="G851" s="9" t="s">
-        <v>1827</v>
-      </c>
-      <c r="H851" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="I851" s="7" t="s">
-        <v>860</v>
-      </c>
+        <v>1864</v>
+      </c>
+      <c r="H851" s="7"/>
+      <c r="I851" s="7"/>
     </row>
     <row r="852" spans="1:9">
       <c r="A852" s="7">
         <v>851</v>
       </c>
       <c r="B852" s="7">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C852" s="9" t="s">
         <v>1144</v>
       </c>
       <c r="D852" s="9" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E852" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F852" s="7">
         <v>1</v>
       </c>
       <c r="G852" s="9" t="s">
-        <v>1865</v>
-      </c>
-      <c r="H852" s="7"/>
-      <c r="I852" s="7"/>
+        <v>1875</v>
+      </c>
+      <c r="H852" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="I852" s="7" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="853" spans="1:9">
       <c r="A853" s="7">
         <v>852</v>
       </c>
-      <c r="B853" s="7">
-        <v>341</v>
-      </c>
-      <c r="C853" s="9" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D853" s="9" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E853" s="7">
-        <v>2</v>
-      </c>
-      <c r="F853" s="7">
-        <v>1</v>
-      </c>
-      <c r="G853" s="9" t="s">
+      <c r="B853" s="93">
+        <v>342</v>
+      </c>
+      <c r="C853" s="94" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D853" s="94" t="s">
         <v>1876</v>
       </c>
-      <c r="H853" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="I853" s="7" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="854" spans="1:9">
+      <c r="E853" s="93">
+        <v>2</v>
+      </c>
+      <c r="F853" s="93">
+        <v>1</v>
+      </c>
+      <c r="G853" s="94" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H853" s="7"/>
+      <c r="I853" s="7"/>
+    </row>
+    <row r="854" spans="1:9" s="83" customFormat="1">
       <c r="A854" s="7">
         <v>853</v>
       </c>
       <c r="B854" s="93">
         <v>342</v>
       </c>
-      <c r="C854" s="94" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D854" s="94" t="s">
-        <v>1877</v>
+      <c r="C854" s="93" t="s">
+        <v>865</v>
+      </c>
+      <c r="D854" s="93">
+        <v>1</v>
       </c>
       <c r="E854" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F854" s="93">
         <v>1</v>
       </c>
       <c r="G854" s="94" t="s">
-        <v>1878</v>
+        <v>1867</v>
       </c>
       <c r="H854" s="7"/>
       <c r="I854" s="7"/>
     </row>
-    <row r="855" spans="1:9" s="83" customFormat="1">
+    <row r="855" spans="1:9">
       <c r="A855" s="7">
         <v>854</v>
       </c>
       <c r="B855" s="93">
         <v>342</v>
       </c>
-      <c r="C855" s="93" t="s">
-        <v>865</v>
-      </c>
-      <c r="D855" s="93">
-        <v>1</v>
+      <c r="C855" s="94" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D855" s="94" t="s">
+        <v>1873</v>
       </c>
       <c r="E855" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F855" s="93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G855" s="94" t="s">
-        <v>1868</v>
+        <v>1655</v>
       </c>
       <c r="H855" s="7"/>
       <c r="I855" s="7"/>
     </row>
-    <row r="856" spans="1:9">
+    <row r="856" spans="1:9" s="91" customFormat="1">
       <c r="A856" s="7">
         <v>855</v>
       </c>
       <c r="B856" s="93">
         <v>342</v>
       </c>
-      <c r="C856" s="94" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D856" s="94" t="s">
-        <v>1874</v>
+      <c r="C856" s="93" t="s">
+        <v>865</v>
+      </c>
+      <c r="D856" s="93">
+        <v>1</v>
       </c>
       <c r="E856" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F856" s="93">
         <v>2</v>
       </c>
       <c r="G856" s="94" t="s">
-        <v>1655</v>
+        <v>1867</v>
       </c>
       <c r="H856" s="7"/>
       <c r="I856" s="7"/>
@@ -50325,20 +50317,20 @@
       <c r="B857" s="93">
         <v>342</v>
       </c>
-      <c r="C857" s="93" t="s">
-        <v>865</v>
-      </c>
-      <c r="D857" s="93">
-        <v>1</v>
+      <c r="C857" s="94" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D857" s="94" t="s">
+        <v>1874</v>
       </c>
       <c r="E857" s="93">
+        <v>2</v>
+      </c>
+      <c r="F857" s="93">
         <v>3</v>
       </c>
-      <c r="F857" s="93">
-        <v>2</v>
-      </c>
       <c r="G857" s="94" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="H857" s="7"/>
       <c r="I857" s="7"/>
@@ -50350,14 +50342,14 @@
       <c r="B858" s="93">
         <v>342</v>
       </c>
-      <c r="C858" s="94" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D858" s="94" t="s">
-        <v>1875</v>
+      <c r="C858" s="93" t="s">
+        <v>865</v>
+      </c>
+      <c r="D858" s="93">
+        <v>1</v>
       </c>
       <c r="E858" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F858" s="93">
         <v>3</v>
@@ -50368,7 +50360,7 @@
       <c r="H858" s="7"/>
       <c r="I858" s="7"/>
     </row>
-    <row r="859" spans="1:9" s="91" customFormat="1">
+    <row r="859" spans="1:9" s="13" customFormat="1">
       <c r="A859" s="7">
         <v>858</v>
       </c>
@@ -50376,24 +50368,24 @@
         <v>342</v>
       </c>
       <c r="C859" s="93" t="s">
-        <v>865</v>
-      </c>
-      <c r="D859" s="93">
-        <v>1</v>
+        <v>1032</v>
+      </c>
+      <c r="D859" s="93" t="s">
+        <v>1884</v>
       </c>
       <c r="E859" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F859" s="93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G859" s="94" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="H859" s="7"/>
       <c r="I859" s="7"/>
     </row>
-    <row r="860" spans="1:9" s="13" customFormat="1">
+    <row r="860" spans="1:9" s="7" customFormat="1">
       <c r="A860" s="7">
         <v>859</v>
       </c>
@@ -50401,44 +50393,42 @@
         <v>342</v>
       </c>
       <c r="C860" s="93" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D860" s="93" t="s">
-        <v>1885</v>
+        <v>865</v>
+      </c>
+      <c r="D860" s="93">
+        <v>1</v>
       </c>
       <c r="E860" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F860" s="93">
         <v>4</v>
       </c>
       <c r="G860" s="94" t="s">
-        <v>1868</v>
-      </c>
-      <c r="H860" s="7"/>
-      <c r="I860" s="7"/>
+        <v>1878</v>
+      </c>
     </row>
     <row r="861" spans="1:9" s="7" customFormat="1">
       <c r="A861" s="7">
         <v>860</v>
       </c>
-      <c r="B861" s="93">
-        <v>342</v>
-      </c>
-      <c r="C861" s="93" t="s">
-        <v>865</v>
-      </c>
-      <c r="D861" s="93">
-        <v>1</v>
-      </c>
-      <c r="E861" s="93">
+      <c r="B861" s="8">
+        <v>343</v>
+      </c>
+      <c r="C861" s="48" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D861" s="8">
+        <v>1</v>
+      </c>
+      <c r="E861" s="8">
         <v>3</v>
       </c>
-      <c r="F861" s="93">
-        <v>4</v>
-      </c>
-      <c r="G861" s="94" t="s">
-        <v>1879</v>
+      <c r="F861" s="8">
+        <v>1</v>
+      </c>
+      <c r="G861" s="9" t="s">
+        <v>2157</v>
       </c>
     </row>
     <row r="862" spans="1:9" s="7" customFormat="1">
@@ -50448,44 +50438,46 @@
       <c r="B862" s="8">
         <v>343</v>
       </c>
-      <c r="C862" s="48" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D862" s="8">
-        <v>1</v>
-      </c>
-      <c r="E862" s="8">
-        <v>3</v>
-      </c>
-      <c r="F862" s="8">
+      <c r="C862" s="9" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D862" s="9" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E862" s="7">
+        <v>5</v>
+      </c>
+      <c r="F862" s="7">
         <v>1</v>
       </c>
       <c r="G862" s="9" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="863" spans="1:9" s="7" customFormat="1">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" s="93" customFormat="1">
       <c r="A863" s="7">
         <v>862</v>
       </c>
-      <c r="B863" s="8">
+      <c r="B863" s="7">
         <v>343</v>
       </c>
       <c r="C863" s="9" t="s">
-        <v>1864</v>
-      </c>
-      <c r="D863" s="9" t="s">
-        <v>1866</v>
+        <v>1870</v>
+      </c>
+      <c r="D863" s="7">
+        <v>4</v>
       </c>
       <c r="E863" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F863" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G863" s="9" t="s">
-        <v>1870</v>
-      </c>
+        <v>2159</v>
+      </c>
+      <c r="H863" s="7"/>
+      <c r="I863" s="7"/>
     </row>
     <row r="864" spans="1:9" s="93" customFormat="1">
       <c r="A864" s="7">
@@ -50495,19 +50487,19 @@
         <v>343</v>
       </c>
       <c r="C864" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D864" s="9" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E864" s="7">
+        <v>5</v>
+      </c>
+      <c r="F864" s="7">
+        <v>2</v>
+      </c>
+      <c r="G864" s="9" t="s">
         <v>1871</v>
-      </c>
-      <c r="D864" s="7">
-        <v>4</v>
-      </c>
-      <c r="E864" s="7">
-        <v>3</v>
-      </c>
-      <c r="F864" s="7">
-        <v>2</v>
-      </c>
-      <c r="G864" s="9" t="s">
-        <v>2161</v>
       </c>
       <c r="H864" s="7"/>
       <c r="I864" s="7"/>
@@ -50523,16 +50515,16 @@
         <v>1144</v>
       </c>
       <c r="D865" s="9" t="s">
-        <v>1888</v>
+        <v>1868</v>
       </c>
       <c r="E865" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F865" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G865" s="9" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="H865" s="7"/>
       <c r="I865" s="7"/>
@@ -50548,16 +50540,16 @@
         <v>1144</v>
       </c>
       <c r="D866" s="9" t="s">
-        <v>1869</v>
+        <v>1884</v>
       </c>
       <c r="E866" s="7">
         <v>2</v>
       </c>
       <c r="F866" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G866" s="9" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="H866" s="7"/>
       <c r="I866" s="7"/>
@@ -50567,22 +50559,22 @@
         <v>866</v>
       </c>
       <c r="B867" s="7">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C867" s="9" t="s">
-        <v>1144</v>
+        <v>852</v>
       </c>
       <c r="D867" s="9" t="s">
-        <v>1885</v>
+        <v>1912</v>
       </c>
       <c r="E867" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F867" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G867" s="9" t="s">
-        <v>1873</v>
+        <v>999</v>
       </c>
       <c r="H867" s="7"/>
       <c r="I867" s="7"/>
@@ -50598,16 +50590,16 @@
         <v>852</v>
       </c>
       <c r="D868" s="9" t="s">
-        <v>1913</v>
+        <v>1000</v>
       </c>
       <c r="E868" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F868" s="7">
         <v>1</v>
       </c>
       <c r="G868" s="9" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="H868" s="7"/>
       <c r="I868" s="7"/>
@@ -50620,10 +50612,10 @@
         <v>344</v>
       </c>
       <c r="C869" s="9" t="s">
-        <v>852</v>
+        <v>1032</v>
       </c>
       <c r="D869" s="9" t="s">
-        <v>1000</v>
+        <v>1913</v>
       </c>
       <c r="E869" s="7">
         <v>2</v>
@@ -50632,7 +50624,7 @@
         <v>1</v>
       </c>
       <c r="G869" s="9" t="s">
-        <v>1001</v>
+        <v>1077</v>
       </c>
       <c r="H869" s="7"/>
       <c r="I869" s="7"/>
@@ -50645,44 +50637,44 @@
         <v>344</v>
       </c>
       <c r="C870" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D870" s="9" t="s">
-        <v>1914</v>
+        <v>899</v>
+      </c>
+      <c r="D870" s="7">
+        <v>600</v>
       </c>
       <c r="E870" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F870" s="7">
         <v>1</v>
       </c>
       <c r="G870" s="9" t="s">
-        <v>1077</v>
+        <v>1002</v>
       </c>
       <c r="H870" s="7"/>
       <c r="I870" s="7"/>
     </row>
-    <row r="871" spans="1:9" s="93" customFormat="1">
+    <row r="871" spans="1:9">
       <c r="A871" s="7">
         <v>870</v>
       </c>
       <c r="B871" s="7">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C871" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="D871" s="7">
-        <v>600</v>
+        <v>852</v>
+      </c>
+      <c r="D871" s="9" t="s">
+        <v>1912</v>
       </c>
       <c r="E871" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F871" s="7">
         <v>1</v>
       </c>
       <c r="G871" s="9" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H871" s="7"/>
       <c r="I871" s="7"/>
@@ -50698,16 +50690,16 @@
         <v>852</v>
       </c>
       <c r="D872" s="9" t="s">
-        <v>1913</v>
+        <v>1000</v>
       </c>
       <c r="E872" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F872" s="7">
         <v>1</v>
       </c>
       <c r="G872" s="9" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H872" s="7"/>
       <c r="I872" s="7"/>
@@ -50720,19 +50712,19 @@
         <v>345</v>
       </c>
       <c r="C873" s="9" t="s">
-        <v>852</v>
+        <v>1032</v>
       </c>
       <c r="D873" s="9" t="s">
-        <v>1000</v>
+        <v>1896</v>
       </c>
       <c r="E873" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F873" s="7">
         <v>1</v>
       </c>
       <c r="G873" s="9" t="s">
-        <v>1004</v>
+        <v>1066</v>
       </c>
       <c r="H873" s="7"/>
       <c r="I873" s="7"/>
@@ -50745,44 +50737,44 @@
         <v>345</v>
       </c>
       <c r="C874" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D874" s="9" t="s">
-        <v>1897</v>
+        <v>899</v>
+      </c>
+      <c r="D874" s="7">
+        <v>600</v>
       </c>
       <c r="E874" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F874" s="7">
         <v>1</v>
       </c>
       <c r="G874" s="9" t="s">
-        <v>1066</v>
+        <v>1002</v>
       </c>
       <c r="H874" s="7"/>
       <c r="I874" s="7"/>
     </row>
-    <row r="875" spans="1:9">
+    <row r="875" spans="1:9" s="13" customFormat="1">
       <c r="A875" s="7">
         <v>874</v>
       </c>
       <c r="B875" s="7">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C875" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="D875" s="7">
-        <v>600</v>
+        <v>1140</v>
+      </c>
+      <c r="D875" s="9" t="s">
+        <v>1885</v>
       </c>
       <c r="E875" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F875" s="7">
         <v>1</v>
       </c>
       <c r="G875" s="9" t="s">
-        <v>1002</v>
+        <v>1891</v>
       </c>
       <c r="H875" s="7"/>
       <c r="I875" s="7"/>
@@ -50794,17 +50786,17 @@
       <c r="B876" s="7">
         <v>346</v>
       </c>
-      <c r="C876" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D876" s="9" t="s">
+      <c r="C876" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D876" s="7" t="s">
         <v>1886</v>
       </c>
       <c r="E876" s="7">
         <v>2</v>
       </c>
       <c r="F876" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G876" s="9" t="s">
         <v>1892</v>
@@ -50812,7 +50804,7 @@
       <c r="H876" s="7"/>
       <c r="I876" s="7"/>
     </row>
-    <row r="877" spans="1:9" s="13" customFormat="1">
+    <row r="877" spans="1:9" s="7" customFormat="1">
       <c r="A877" s="7">
         <v>876</v>
       </c>
@@ -50822,20 +50814,18 @@
       <c r="C877" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="D877" s="7" t="s">
-        <v>1887</v>
+      <c r="D877" s="9" t="s">
+        <v>1888</v>
       </c>
       <c r="E877" s="7">
         <v>2</v>
       </c>
       <c r="F877" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G877" s="9" t="s">
         <v>1893</v>
       </c>
-      <c r="H877" s="7"/>
-      <c r="I877" s="7"/>
     </row>
     <row r="878" spans="1:9" s="7" customFormat="1">
       <c r="A878" s="7">
@@ -50854,7 +50844,7 @@
         <v>2</v>
       </c>
       <c r="F878" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G878" s="9" t="s">
         <v>1894</v>
@@ -50865,22 +50855,22 @@
         <v>878</v>
       </c>
       <c r="B879" s="7">
-        <v>346</v>
-      </c>
-      <c r="C879" s="7" t="s">
-        <v>1032</v>
+        <v>347</v>
+      </c>
+      <c r="C879" s="9" t="s">
+        <v>1144</v>
       </c>
       <c r="D879" s="9" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="E879" s="7">
         <v>2</v>
       </c>
       <c r="F879" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G879" s="9" t="s">
-        <v>1895</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="880" spans="1:9" s="7" customFormat="1">
@@ -50891,19 +50881,19 @@
         <v>347</v>
       </c>
       <c r="C880" s="9" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D880" s="9" t="s">
-        <v>1888</v>
+        <v>2158</v>
       </c>
       <c r="E880" s="7">
         <v>2</v>
       </c>
       <c r="F880" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G880" s="9" t="s">
-        <v>1872</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="881" spans="1:9" s="7" customFormat="1">
@@ -50911,22 +50901,22 @@
         <v>880</v>
       </c>
       <c r="B881" s="7">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C881" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D881" s="9" t="s">
-        <v>2160</v>
+        <v>1887</v>
       </c>
       <c r="E881" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F881" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G881" s="9" t="s">
-        <v>1506</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="882" spans="1:9" s="7" customFormat="1">
@@ -50940,7 +50930,7 @@
         <v>1140</v>
       </c>
       <c r="D882" s="9" t="s">
-        <v>1888</v>
+        <v>2160</v>
       </c>
       <c r="E882" s="7">
         <v>5</v>
@@ -50949,7 +50939,7 @@
         <v>1</v>
       </c>
       <c r="G882" s="9" t="s">
-        <v>1872</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="883" spans="1:9" s="7" customFormat="1">
@@ -50957,22 +50947,22 @@
         <v>882</v>
       </c>
       <c r="B883" s="7">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C883" s="9" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="D883" s="9" t="s">
-        <v>2162</v>
+        <v>1592</v>
       </c>
       <c r="E883" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F883" s="7">
         <v>1</v>
       </c>
       <c r="G883" s="9" t="s">
-        <v>1506</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="884" spans="1:9" s="7" customFormat="1">
@@ -50980,13 +50970,13 @@
         <v>883</v>
       </c>
       <c r="B884" s="7">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C884" s="9" t="s">
         <v>1144</v>
       </c>
       <c r="D884" s="9" t="s">
-        <v>1592</v>
+        <v>1804</v>
       </c>
       <c r="E884" s="7">
         <v>2</v>
@@ -50995,7 +50985,7 @@
         <v>1</v>
       </c>
       <c r="G884" s="9" t="s">
-        <v>1905</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="885" spans="1:9" s="7" customFormat="1">
@@ -51003,22 +50993,22 @@
         <v>884</v>
       </c>
       <c r="B885" s="7">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C885" s="9" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D885" s="9" t="s">
-        <v>1804</v>
+        <v>1881</v>
       </c>
       <c r="E885" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F885" s="7">
         <v>1</v>
       </c>
       <c r="G885" s="9" t="s">
-        <v>1506</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="886" spans="1:9" s="7" customFormat="1">
@@ -51026,25 +51016,25 @@
         <v>885</v>
       </c>
       <c r="B886" s="7">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C886" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D886" s="9" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E886" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F886" s="7">
         <v>1</v>
       </c>
       <c r="G886" s="9" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="887" spans="1:9" s="7" customFormat="1">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9">
       <c r="A887" s="7">
         <v>886</v>
       </c>
@@ -51052,20 +51042,22 @@
         <v>352</v>
       </c>
       <c r="C887" s="9" t="s">
-        <v>1140</v>
+        <v>1919</v>
       </c>
       <c r="D887" s="9" t="s">
-        <v>1882</v>
+        <v>1592</v>
       </c>
       <c r="E887" s="7">
         <v>2</v>
       </c>
       <c r="F887" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G887" s="9" t="s">
-        <v>1892</v>
-      </c>
+        <v>1920</v>
+      </c>
+      <c r="H887" s="7"/>
+      <c r="I887" s="7"/>
     </row>
     <row r="888" spans="1:9">
       <c r="A888" s="7">
@@ -51075,16 +51067,16 @@
         <v>352</v>
       </c>
       <c r="C888" s="9" t="s">
-        <v>1920</v>
+        <v>1140</v>
       </c>
       <c r="D888" s="9" t="s">
-        <v>1592</v>
+        <v>1804</v>
       </c>
       <c r="E888" s="7">
         <v>2</v>
       </c>
       <c r="F888" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G888" s="9" t="s">
         <v>1921</v>
@@ -51097,22 +51089,22 @@
         <v>888</v>
       </c>
       <c r="B889" s="7">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C889" s="9" t="s">
-        <v>1140</v>
+        <v>1928</v>
       </c>
       <c r="D889" s="9" t="s">
-        <v>1804</v>
+        <v>1929</v>
       </c>
       <c r="E889" s="7">
         <v>2</v>
       </c>
       <c r="F889" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G889" s="9" t="s">
-        <v>1922</v>
+        <v>1930</v>
       </c>
       <c r="H889" s="7"/>
       <c r="I889" s="7"/>
@@ -51122,22 +51114,22 @@
         <v>889</v>
       </c>
       <c r="B890" s="7">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C890" s="9" t="s">
-        <v>1929</v>
+        <v>1140</v>
       </c>
       <c r="D890" s="9" t="s">
-        <v>1930</v>
+        <v>1804</v>
       </c>
       <c r="E890" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F890" s="7">
         <v>1</v>
       </c>
       <c r="G890" s="9" t="s">
-        <v>1931</v>
+        <v>1921</v>
       </c>
       <c r="H890" s="7"/>
       <c r="I890" s="7"/>
@@ -51150,10 +51142,10 @@
         <v>354</v>
       </c>
       <c r="C891" s="9" t="s">
-        <v>1140</v>
+        <v>1032</v>
       </c>
       <c r="D891" s="9" t="s">
-        <v>1804</v>
+        <v>1896</v>
       </c>
       <c r="E891" s="7">
         <v>5</v>
@@ -51162,7 +51154,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="9" t="s">
-        <v>1922</v>
+        <v>1066</v>
       </c>
       <c r="H891" s="7"/>
       <c r="I891" s="7"/>
@@ -51172,22 +51164,22 @@
         <v>891</v>
       </c>
       <c r="B892" s="7">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C892" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D892" s="9" t="s">
-        <v>1897</v>
+        <v>899</v>
+      </c>
+      <c r="D892" s="7">
+        <v>100</v>
       </c>
       <c r="E892" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F892" s="7">
         <v>1</v>
       </c>
       <c r="G892" s="9" t="s">
-        <v>1066</v>
+        <v>1934</v>
       </c>
       <c r="H892" s="7"/>
       <c r="I892" s="7"/>
@@ -51200,19 +51192,19 @@
         <v>355</v>
       </c>
       <c r="C893" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="D893" s="7">
-        <v>100</v>
+        <v>1140</v>
+      </c>
+      <c r="D893" s="9" t="s">
+        <v>1807</v>
       </c>
       <c r="E893" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F893" s="7">
         <v>1</v>
       </c>
       <c r="G893" s="9" t="s">
-        <v>1935</v>
+        <v>1506</v>
       </c>
       <c r="H893" s="7"/>
       <c r="I893" s="7"/>
@@ -51225,19 +51217,19 @@
         <v>355</v>
       </c>
       <c r="C894" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D894" s="9" t="s">
-        <v>1807</v>
+        <v>899</v>
+      </c>
+      <c r="D894" s="7">
+        <v>100</v>
       </c>
       <c r="E894" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F894" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G894" s="9" t="s">
-        <v>1506</v>
+        <v>1934</v>
       </c>
       <c r="H894" s="7"/>
       <c r="I894" s="7"/>
@@ -51250,19 +51242,19 @@
         <v>355</v>
       </c>
       <c r="C895" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="D895" s="7">
-        <v>100</v>
+        <v>1140</v>
+      </c>
+      <c r="D895" s="9" t="s">
+        <v>1896</v>
       </c>
       <c r="E895" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F895" s="7">
         <v>2</v>
       </c>
       <c r="G895" s="9" t="s">
-        <v>1935</v>
+        <v>1506</v>
       </c>
       <c r="H895" s="7"/>
       <c r="I895" s="7"/>
@@ -51272,22 +51264,22 @@
         <v>895</v>
       </c>
       <c r="B896" s="7">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C896" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D896" s="9" t="s">
-        <v>1897</v>
+        <v>1939</v>
       </c>
       <c r="E896" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F896" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G896" s="9" t="s">
-        <v>1506</v>
+        <v>1940</v>
       </c>
       <c r="H896" s="7"/>
       <c r="I896" s="7"/>
@@ -51300,13 +51292,13 @@
         <v>356</v>
       </c>
       <c r="C897" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D897" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D897" s="9">
+        <v>2</v>
       </c>
       <c r="E897" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F897" s="7">
         <v>1</v>
@@ -51322,22 +51314,22 @@
         <v>897</v>
       </c>
       <c r="B898" s="7">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C898" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D898" s="9">
-        <v>2</v>
+        <v>1140</v>
+      </c>
+      <c r="D898" s="9" t="s">
+        <v>1939</v>
       </c>
       <c r="E898" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F898" s="7">
         <v>1</v>
       </c>
       <c r="G898" s="9" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="H898" s="7"/>
       <c r="I898" s="7"/>
@@ -51350,13 +51342,13 @@
         <v>357</v>
       </c>
       <c r="C899" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D899" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D899" s="9">
+        <v>3</v>
       </c>
       <c r="E899" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F899" s="7">
         <v>1</v>
@@ -51367,7 +51359,7 @@
       <c r="H899" s="7"/>
       <c r="I899" s="7"/>
     </row>
-    <row r="900" spans="1:9">
+    <row r="900" spans="1:9" s="7" customFormat="1">
       <c r="A900" s="7">
         <v>899</v>
       </c>
@@ -51378,42 +51370,42 @@
         <v>1115</v>
       </c>
       <c r="D900" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E900" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F900" s="7">
         <v>1</v>
       </c>
       <c r="G900" s="9" t="s">
-        <v>1942</v>
-      </c>
-      <c r="H900" s="7"/>
-      <c r="I900" s="7"/>
-    </row>
-    <row r="901" spans="1:9" s="7" customFormat="1">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9">
       <c r="A901" s="7">
         <v>900</v>
       </c>
       <c r="B901" s="7">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C901" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D901" s="9">
+        <v>1140</v>
+      </c>
+      <c r="D901" s="9" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E901" s="7">
         <v>5</v>
       </c>
-      <c r="E901" s="7">
-        <v>4</v>
-      </c>
       <c r="F901" s="7">
         <v>1</v>
       </c>
       <c r="G901" s="9" t="s">
-        <v>1942</v>
-      </c>
+        <v>1940</v>
+      </c>
+      <c r="H901" s="7"/>
+      <c r="I901" s="7"/>
     </row>
     <row r="902" spans="1:9">
       <c r="A902" s="7">
@@ -51423,13 +51415,13 @@
         <v>358</v>
       </c>
       <c r="C902" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D902" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D902" s="9">
+        <v>6</v>
       </c>
       <c r="E902" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F902" s="7">
         <v>1</v>
@@ -51451,16 +51443,16 @@
         <v>1115</v>
       </c>
       <c r="D903" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E903" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F903" s="7">
         <v>1</v>
       </c>
       <c r="G903" s="9" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="H903" s="7"/>
       <c r="I903" s="7"/>
@@ -51470,22 +51462,22 @@
         <v>903</v>
       </c>
       <c r="B904" s="7">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C904" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D904" s="9">
-        <v>7</v>
+        <v>1140</v>
+      </c>
+      <c r="D904" s="9" t="s">
+        <v>1939</v>
       </c>
       <c r="E904" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F904" s="7">
         <v>1</v>
       </c>
       <c r="G904" s="9" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="H904" s="7"/>
       <c r="I904" s="7"/>
@@ -51498,13 +51490,13 @@
         <v>359</v>
       </c>
       <c r="C905" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D905" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D905" s="9">
+        <v>8</v>
       </c>
       <c r="E905" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F905" s="7">
         <v>1</v>
@@ -51520,22 +51512,22 @@
         <v>905</v>
       </c>
       <c r="B906" s="7">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C906" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D906" s="9">
-        <v>8</v>
+        <v>1140</v>
+      </c>
+      <c r="D906" s="9" t="s">
+        <v>1939</v>
       </c>
       <c r="E906" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F906" s="7">
         <v>1</v>
       </c>
       <c r="G906" s="9" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="H906" s="7"/>
       <c r="I906" s="7"/>
@@ -51548,10 +51540,10 @@
         <v>360</v>
       </c>
       <c r="C907" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D907" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D907" s="9">
+        <v>2</v>
       </c>
       <c r="E907" s="7">
         <v>2</v>
@@ -51565,18 +51557,18 @@
       <c r="H907" s="7"/>
       <c r="I907" s="7"/>
     </row>
-    <row r="908" spans="1:9">
+    <row r="908" spans="1:9" s="7" customFormat="1">
       <c r="A908" s="7">
         <v>907</v>
       </c>
       <c r="B908" s="7">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C908" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D908" s="9">
-        <v>2</v>
+        <v>1140</v>
+      </c>
+      <c r="D908" s="9" t="s">
+        <v>1939</v>
       </c>
       <c r="E908" s="7">
         <v>2</v>
@@ -51585,10 +51577,8 @@
         <v>1</v>
       </c>
       <c r="G908" s="9" t="s">
-        <v>1942</v>
-      </c>
-      <c r="H908" s="7"/>
-      <c r="I908" s="7"/>
+        <v>1940</v>
+      </c>
     </row>
     <row r="909" spans="1:9" s="7" customFormat="1">
       <c r="A909" s="7">
@@ -51598,13 +51588,13 @@
         <v>361</v>
       </c>
       <c r="C909" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D909" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D909" s="9">
+        <v>3</v>
       </c>
       <c r="E909" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F909" s="7">
         <v>1</v>
@@ -51624,16 +51614,16 @@
         <v>1115</v>
       </c>
       <c r="D910" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E910" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F910" s="7">
         <v>1</v>
       </c>
       <c r="G910" s="9" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="7" customFormat="1">
@@ -51641,22 +51631,22 @@
         <v>910</v>
       </c>
       <c r="B911" s="7">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C911" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D911" s="9">
-        <v>5</v>
+        <v>1140</v>
+      </c>
+      <c r="D911" s="9" t="s">
+        <v>1939</v>
       </c>
       <c r="E911" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F911" s="7">
         <v>1</v>
       </c>
       <c r="G911" s="9" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="7" customFormat="1">
@@ -51667,13 +51657,13 @@
         <v>362</v>
       </c>
       <c r="C912" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D912" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D912" s="9">
+        <v>6</v>
       </c>
       <c r="E912" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F912" s="7">
         <v>1</v>
@@ -51693,16 +51683,16 @@
         <v>1115</v>
       </c>
       <c r="D913" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E913" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F913" s="7">
         <v>1</v>
       </c>
       <c r="G913" s="9" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="7" customFormat="1">
@@ -51710,22 +51700,22 @@
         <v>913</v>
       </c>
       <c r="B914" s="7">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C914" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D914" s="9">
-        <v>7</v>
+        <v>1140</v>
+      </c>
+      <c r="D914" s="9" t="s">
+        <v>1939</v>
       </c>
       <c r="E914" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F914" s="7">
         <v>1</v>
       </c>
       <c r="G914" s="9" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="7" customFormat="1">
@@ -51736,13 +51726,13 @@
         <v>363</v>
       </c>
       <c r="C915" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D915" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D915" s="9">
+        <v>8</v>
       </c>
       <c r="E915" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F915" s="7">
         <v>1</v>
@@ -51756,22 +51746,22 @@
         <v>915</v>
       </c>
       <c r="B916" s="7">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C916" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D916" s="9">
-        <v>8</v>
+        <v>1140</v>
+      </c>
+      <c r="D916" s="9" t="s">
+        <v>1938</v>
       </c>
       <c r="E916" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F916" s="7">
         <v>1</v>
       </c>
       <c r="G916" s="9" t="s">
-        <v>1942</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="7" customFormat="1">
@@ -51782,19 +51772,19 @@
         <v>364</v>
       </c>
       <c r="C917" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D917" s="9" t="s">
-        <v>1939</v>
+        <v>1115</v>
+      </c>
+      <c r="D917" s="9">
+        <v>2</v>
       </c>
       <c r="E917" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F917" s="7">
         <v>1</v>
       </c>
       <c r="G917" s="9" t="s">
-        <v>2040</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="7" customFormat="1">
@@ -51805,19 +51795,19 @@
         <v>364</v>
       </c>
       <c r="C918" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D918" s="9">
-        <v>2</v>
+        <v>1140</v>
+      </c>
+      <c r="D918" s="9" t="s">
+        <v>1952</v>
       </c>
       <c r="E918" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F918" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G918" s="9" t="s">
-        <v>1942</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="7" customFormat="1">
@@ -51828,19 +51818,19 @@
         <v>364</v>
       </c>
       <c r="C919" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D919" s="9" t="s">
-        <v>1953</v>
+        <v>1115</v>
+      </c>
+      <c r="D919" s="9">
+        <v>2</v>
       </c>
       <c r="E919" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F919" s="7">
         <v>2</v>
       </c>
       <c r="G919" s="9" t="s">
-        <v>1983</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="7" customFormat="1">
@@ -51848,22 +51838,22 @@
         <v>919</v>
       </c>
       <c r="B920" s="7">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C920" s="9" t="s">
         <v>1115</v>
       </c>
       <c r="D920" s="9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E920" s="7">
         <v>3</v>
       </c>
       <c r="F920" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G920" s="9" t="s">
-        <v>1942</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="7" customFormat="1">
@@ -51871,13 +51861,13 @@
         <v>920</v>
       </c>
       <c r="B921" s="7">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C921" s="9" t="s">
         <v>1115</v>
       </c>
       <c r="D921" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E921" s="7">
         <v>3</v>
@@ -51894,22 +51884,22 @@
         <v>921</v>
       </c>
       <c r="B922" s="7">
-        <v>366</v>
-      </c>
-      <c r="C922" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D922" s="9">
-        <v>12</v>
+        <v>367</v>
+      </c>
+      <c r="C922" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D922" s="7" t="s">
+        <v>1648</v>
       </c>
       <c r="E922" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F922" s="7">
         <v>1</v>
       </c>
-      <c r="G922" s="9" t="s">
-        <v>1959</v>
+      <c r="G922" s="7" t="s">
+        <v>1962</v>
       </c>
     </row>
     <row r="923" spans="1:7" s="7" customFormat="1">
@@ -51917,22 +51907,22 @@
         <v>922</v>
       </c>
       <c r="B923" s="7">
-        <v>367</v>
-      </c>
-      <c r="C923" s="7" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D923" s="7" t="s">
-        <v>1648</v>
+        <v>368</v>
+      </c>
+      <c r="C923" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D923" s="9" t="s">
+        <v>1881</v>
       </c>
       <c r="E923" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F923" s="7">
         <v>1</v>
       </c>
-      <c r="G923" s="7" t="s">
-        <v>1963</v>
+      <c r="G923" s="9" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="7" customFormat="1">
@@ -51943,19 +51933,19 @@
         <v>368</v>
       </c>
       <c r="C924" s="9" t="s">
-        <v>1140</v>
+        <v>1966</v>
       </c>
       <c r="D924" s="9" t="s">
-        <v>1882</v>
+        <v>1967</v>
       </c>
       <c r="E924" s="7">
         <v>2</v>
       </c>
       <c r="F924" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G924" s="9" t="s">
-        <v>1984</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="925" spans="1:7" s="7" customFormat="1">
@@ -51963,22 +51953,22 @@
         <v>924</v>
       </c>
       <c r="B925" s="7">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C925" s="9" t="s">
-        <v>1967</v>
+        <v>1140</v>
       </c>
       <c r="D925" s="9" t="s">
-        <v>1968</v>
+        <v>1951</v>
       </c>
       <c r="E925" s="7">
         <v>2</v>
       </c>
       <c r="F925" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G925" s="9" t="s">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="7" customFormat="1">
@@ -51992,16 +51982,16 @@
         <v>1140</v>
       </c>
       <c r="D926" s="9" t="s">
-        <v>1952</v>
+        <v>1975</v>
       </c>
       <c r="E926" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F926" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G926" s="9" t="s">
-        <v>1983</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="927" spans="1:7" s="7" customFormat="1">
@@ -52009,22 +51999,22 @@
         <v>926</v>
       </c>
       <c r="B927" s="7">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C927" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D927" s="9" t="s">
-        <v>1976</v>
+        <v>1938</v>
       </c>
       <c r="E927" s="7">
         <v>5</v>
       </c>
       <c r="F927" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G927" s="9" t="s">
-        <v>1966</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="7" customFormat="1">
@@ -52032,45 +52022,45 @@
         <v>927</v>
       </c>
       <c r="B928" s="7">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C928" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D928" s="9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E928" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F928" s="7">
         <v>1</v>
       </c>
       <c r="G928" s="9" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="929" spans="1:8" s="7" customFormat="1">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" s="19" customFormat="1">
       <c r="A929" s="7">
         <v>928</v>
       </c>
-      <c r="B929" s="7">
-        <v>371</v>
-      </c>
-      <c r="C929" s="9" t="s">
+      <c r="B929" s="19">
+        <v>372</v>
+      </c>
+      <c r="C929" s="20" t="s">
         <v>1140</v>
       </c>
-      <c r="D929" s="9" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E929" s="7">
-        <v>2</v>
-      </c>
-      <c r="F929" s="7">
-        <v>1</v>
-      </c>
-      <c r="G929" s="9" t="s">
-        <v>1708</v>
+      <c r="D929" s="20" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E929" s="19">
+        <v>5</v>
+      </c>
+      <c r="F929" s="19">
+        <v>1</v>
+      </c>
+      <c r="G929" s="20" t="s">
+        <v>1768</v>
       </c>
     </row>
     <row r="930" spans="1:8" s="19" customFormat="1">
@@ -52078,45 +52068,45 @@
         <v>929</v>
       </c>
       <c r="B930" s="19">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C930" s="20" t="s">
         <v>1140</v>
       </c>
       <c r="D930" s="20" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E930" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F930" s="19">
         <v>1</v>
       </c>
       <c r="G930" s="20" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="931" spans="1:8" s="19" customFormat="1">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" s="7" customFormat="1">
       <c r="A931" s="7">
         <v>930</v>
       </c>
-      <c r="B931" s="19">
-        <v>373</v>
-      </c>
-      <c r="C931" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D931" s="20" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E931" s="19">
-        <v>2</v>
-      </c>
-      <c r="F931" s="19">
-        <v>1</v>
-      </c>
-      <c r="G931" s="20" t="s">
-        <v>1708</v>
+      <c r="B931" s="7">
+        <v>374</v>
+      </c>
+      <c r="C931" s="9" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D931" s="9" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E931" s="7">
+        <v>5</v>
+      </c>
+      <c r="F931" s="7">
+        <v>1</v>
+      </c>
+      <c r="G931" s="9" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="932" spans="1:8" s="7" customFormat="1">
@@ -52124,22 +52114,22 @@
         <v>931</v>
       </c>
       <c r="B932" s="7">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C932" s="9" t="s">
-        <v>1990</v>
+        <v>1966</v>
       </c>
       <c r="D932" s="9" t="s">
-        <v>1885</v>
+        <v>1592</v>
       </c>
       <c r="E932" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F932" s="7">
         <v>1</v>
       </c>
       <c r="G932" s="9" t="s">
-        <v>1941</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="933" spans="1:8" s="7" customFormat="1">
@@ -52150,16 +52140,16 @@
         <v>375</v>
       </c>
       <c r="C933" s="9" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D933" s="9" t="s">
-        <v>1592</v>
+        <v>1998</v>
       </c>
       <c r="E933" s="7">
         <v>2</v>
       </c>
       <c r="F933" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G933" s="9" t="s">
         <v>2000</v>
@@ -52173,19 +52163,19 @@
         <v>375</v>
       </c>
       <c r="C934" s="9" t="s">
-        <v>1967</v>
+        <v>1140</v>
       </c>
       <c r="D934" s="9" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E934" s="7">
+        <v>2</v>
+      </c>
+      <c r="F934" s="7">
+        <v>3</v>
+      </c>
+      <c r="G934" s="9" t="s">
         <v>1999</v>
-      </c>
-      <c r="E934" s="7">
-        <v>2</v>
-      </c>
-      <c r="F934" s="7">
-        <v>2</v>
-      </c>
-      <c r="G934" s="9" t="s">
-        <v>2001</v>
       </c>
     </row>
     <row r="935" spans="1:8" s="7" customFormat="1">
@@ -52199,13 +52189,13 @@
         <v>1140</v>
       </c>
       <c r="D935" s="9" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="E935" s="7">
         <v>2</v>
       </c>
       <c r="F935" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G935" s="9" t="s">
         <v>2000</v>
@@ -52216,22 +52206,22 @@
         <v>935</v>
       </c>
       <c r="B936" s="7">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C936" s="9" t="s">
-        <v>1140</v>
+        <v>1966</v>
       </c>
       <c r="D936" s="9" t="s">
-        <v>2136</v>
+        <v>1806</v>
       </c>
       <c r="E936" s="7">
         <v>2</v>
       </c>
       <c r="F936" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G936" s="9" t="s">
-        <v>2001</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="937" spans="1:8" s="7" customFormat="1">
@@ -52242,19 +52232,19 @@
         <v>376</v>
       </c>
       <c r="C937" s="9" t="s">
-        <v>1967</v>
+        <v>1140</v>
       </c>
       <c r="D937" s="9" t="s">
-        <v>1806</v>
+        <v>2138</v>
       </c>
       <c r="E937" s="7">
         <v>2</v>
       </c>
       <c r="F937" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G937" s="9" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="938" spans="1:8" s="7" customFormat="1">
@@ -52262,22 +52252,22 @@
         <v>937</v>
       </c>
       <c r="B938" s="7">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C938" s="9" t="s">
-        <v>1140</v>
+        <v>1966</v>
       </c>
       <c r="D938" s="9" t="s">
-        <v>2139</v>
+        <v>1881</v>
       </c>
       <c r="E938" s="7">
         <v>2</v>
       </c>
       <c r="F938" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G938" s="9" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="939" spans="1:8" s="7" customFormat="1">
@@ -52285,13 +52275,13 @@
         <v>938</v>
       </c>
       <c r="B939" s="7">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C939" s="9" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D939" s="9" t="s">
-        <v>1882</v>
+        <v>1905</v>
       </c>
       <c r="E939" s="7">
         <v>2</v>
@@ -52300,7 +52290,7 @@
         <v>1</v>
       </c>
       <c r="G939" s="9" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="940" spans="1:8" s="7" customFormat="1">
@@ -52308,13 +52298,13 @@
         <v>939</v>
       </c>
       <c r="B940" s="7">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C940" s="9" t="s">
-        <v>1967</v>
+        <v>1141</v>
       </c>
       <c r="D940" s="9" t="s">
-        <v>1906</v>
+        <v>1938</v>
       </c>
       <c r="E940" s="7">
         <v>2</v>
@@ -52323,7 +52313,7 @@
         <v>1</v>
       </c>
       <c r="G940" s="9" t="s">
-        <v>2006</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="941" spans="1:8" s="7" customFormat="1">
@@ -52334,10 +52324,10 @@
         <v>379</v>
       </c>
       <c r="C941" s="9" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D941" s="9" t="s">
-        <v>1939</v>
+        <v>1115</v>
+      </c>
+      <c r="D941" s="9">
+        <v>0</v>
       </c>
       <c r="E941" s="7">
         <v>2</v>
@@ -52346,33 +52336,34 @@
         <v>1</v>
       </c>
       <c r="G941" s="9" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="942" spans="1:8" s="7" customFormat="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8">
       <c r="A942" s="7">
         <v>941</v>
       </c>
       <c r="B942" s="7">
-        <v>379</v>
-      </c>
-      <c r="C942" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D942" s="9">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="C942" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D942" s="7" t="s">
+        <v>1648</v>
       </c>
       <c r="E942" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F942" s="7">
         <v>1</v>
       </c>
-      <c r="G942" s="9" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="943" spans="1:8">
+      <c r="G942" s="7" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H942" s="7"/>
+    </row>
+    <row r="943" spans="1:8" ht="16.5">
       <c r="A943" s="7">
         <v>942</v>
       </c>
@@ -52380,23 +52371,23 @@
         <v>380</v>
       </c>
       <c r="C943" s="7" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D943" s="7" t="s">
-        <v>1648</v>
+        <v>2010</v>
+      </c>
+      <c r="D943" s="103" t="s">
+        <v>2011</v>
       </c>
       <c r="E943" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F943" s="7">
         <v>1</v>
       </c>
       <c r="G943" s="7" t="s">
-        <v>1963</v>
+        <v>2012</v>
       </c>
       <c r="H943" s="7"/>
     </row>
-    <row r="944" spans="1:8" ht="16.5">
+    <row r="944" spans="1:8">
       <c r="A944" s="7">
         <v>943</v>
       </c>
@@ -52404,18 +52395,18 @@
         <v>380</v>
       </c>
       <c r="C944" s="7" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D944" s="103" t="s">
-        <v>2012</v>
+        <v>1032</v>
+      </c>
+      <c r="D944" s="7" t="s">
+        <v>1886</v>
       </c>
       <c r="E944" s="7">
         <v>2</v>
       </c>
       <c r="F944" s="7">
-        <v>1</v>
-      </c>
-      <c r="G944" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G944" s="9" t="s">
         <v>2013</v>
       </c>
       <c r="H944" s="7"/>
@@ -52428,10 +52419,10 @@
         <v>380</v>
       </c>
       <c r="C945" s="7" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D945" s="7" t="s">
-        <v>1887</v>
+        <v>2014</v>
+      </c>
+      <c r="D945" s="9" t="s">
+        <v>2015</v>
       </c>
       <c r="E945" s="7">
         <v>2</v>
@@ -52439,47 +52430,46 @@
       <c r="F945" s="7">
         <v>2</v>
       </c>
-      <c r="G945" s="9" t="s">
-        <v>2014</v>
+      <c r="G945" s="7" t="s">
+        <v>2016</v>
       </c>
       <c r="H945" s="7"/>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" s="7" customFormat="1">
       <c r="A946" s="7">
         <v>945</v>
       </c>
       <c r="B946" s="7">
-        <v>380</v>
-      </c>
-      <c r="C946" s="7" t="s">
-        <v>2015</v>
-      </c>
-      <c r="D946" s="9" t="s">
-        <v>2016</v>
+        <v>381</v>
+      </c>
+      <c r="C946" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D946" s="9">
+        <v>0</v>
       </c>
       <c r="E946" s="7">
         <v>2</v>
       </c>
       <c r="F946" s="7">
-        <v>2</v>
-      </c>
-      <c r="G946" s="7" t="s">
-        <v>2017</v>
-      </c>
-      <c r="H946" s="7"/>
-    </row>
-    <row r="947" spans="1:8" s="7" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="G946" s="9" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8">
       <c r="A947" s="7">
         <v>946</v>
       </c>
       <c r="B947" s="7">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C947" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D947" s="9">
-        <v>0</v>
+        <v>1051</v>
+      </c>
+      <c r="D947" s="9" t="s">
+        <v>1209</v>
       </c>
       <c r="E947" s="7">
         <v>2</v>
@@ -52488,8 +52478,9 @@
         <v>1</v>
       </c>
       <c r="G947" s="9" t="s">
-        <v>2009</v>
-      </c>
+        <v>1173</v>
+      </c>
+      <c r="H947" s="7"/>
     </row>
     <row r="948" spans="1:8">
       <c r="A948" s="7">
@@ -52499,19 +52490,19 @@
         <v>382</v>
       </c>
       <c r="C948" s="9" t="s">
-        <v>1051</v>
+        <v>852</v>
       </c>
       <c r="D948" s="9" t="s">
-        <v>1209</v>
+        <v>857</v>
       </c>
       <c r="E948" s="7">
         <v>2</v>
       </c>
       <c r="F948" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G948" s="9" t="s">
-        <v>1173</v>
+        <v>2025</v>
       </c>
       <c r="H948" s="7"/>
     </row>
@@ -52526,13 +52517,13 @@
         <v>852</v>
       </c>
       <c r="D949" s="9" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E949" s="7">
         <v>2</v>
       </c>
       <c r="F949" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G949" s="9" t="s">
         <v>2026</v>
@@ -52544,19 +52535,19 @@
         <v>949</v>
       </c>
       <c r="B950" s="7">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C950" s="9" t="s">
-        <v>852</v>
-      </c>
-      <c r="D950" s="9" t="s">
-        <v>861</v>
+        <v>1115</v>
+      </c>
+      <c r="D950" s="7">
+        <v>1</v>
       </c>
       <c r="E950" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F950" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G950" s="9" t="s">
         <v>2027</v>
@@ -52574,10 +52565,10 @@
         <v>1115</v>
       </c>
       <c r="D951" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E951" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F951" s="7">
         <v>1</v>
@@ -52594,14 +52585,14 @@
       <c r="B952" s="7">
         <v>383</v>
       </c>
-      <c r="C952" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D952" s="7">
-        <v>7</v>
+      <c r="C952" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D952" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E952" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F952" s="7">
         <v>1</v>
@@ -52616,22 +52607,22 @@
         <v>952</v>
       </c>
       <c r="B953" s="7">
-        <v>383</v>
-      </c>
-      <c r="C953" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D953" s="7" t="s">
-        <v>853</v>
+        <v>384</v>
+      </c>
+      <c r="C953" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D953" s="7">
+        <v>8</v>
       </c>
       <c r="E953" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F953" s="7">
         <v>1</v>
       </c>
       <c r="G953" s="9" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="H953" s="7"/>
     </row>
@@ -52646,10 +52637,10 @@
         <v>1115</v>
       </c>
       <c r="D954" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E954" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F954" s="7">
         <v>1</v>
@@ -52666,14 +52657,14 @@
       <c r="B955" s="7">
         <v>384</v>
       </c>
-      <c r="C955" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D955" s="7">
-        <v>12</v>
+      <c r="C955" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D955" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E955" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F955" s="7">
         <v>1</v>
@@ -52683,97 +52674,96 @@
       </c>
       <c r="H955" s="7"/>
     </row>
-    <row r="956" spans="1:8">
+    <row r="956" spans="1:8" s="7" customFormat="1">
       <c r="A956" s="7">
         <v>955</v>
       </c>
       <c r="B956" s="7">
-        <v>384</v>
-      </c>
-      <c r="C956" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D956" s="7" t="s">
-        <v>853</v>
+        <v>385</v>
+      </c>
+      <c r="C956" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D956" s="9">
+        <v>0</v>
       </c>
       <c r="E956" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F956" s="7">
         <v>1</v>
       </c>
       <c r="G956" s="9" t="s">
-        <v>2030</v>
-      </c>
-      <c r="H956" s="7"/>
+        <v>2034</v>
+      </c>
     </row>
     <row r="957" spans="1:8" s="7" customFormat="1">
       <c r="A957" s="7">
         <v>956</v>
       </c>
       <c r="B957" s="7">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C957" s="9" t="s">
-        <v>1115</v>
+        <v>2035</v>
       </c>
       <c r="D957" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E957" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F957" s="7">
         <v>1</v>
       </c>
       <c r="G957" s="9" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="958" spans="1:8" s="7" customFormat="1">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8">
       <c r="A958" s="7">
         <v>957</v>
       </c>
-      <c r="B958" s="7">
-        <v>386</v>
-      </c>
-      <c r="C958" s="9" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D958" s="9">
-        <v>1</v>
-      </c>
-      <c r="E958" s="7">
-        <v>3</v>
-      </c>
-      <c r="F958" s="7">
-        <v>1</v>
-      </c>
-      <c r="G958" s="9" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="959" spans="1:8">
+      <c r="B958" s="8">
+        <v>387</v>
+      </c>
+      <c r="C958" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D958" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="E958" s="8">
+        <v>5</v>
+      </c>
+      <c r="F958" s="8">
+        <v>1</v>
+      </c>
+      <c r="G958" s="8" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" s="7" customFormat="1">
       <c r="A959" s="7">
         <v>958</v>
       </c>
-      <c r="B959" s="8">
-        <v>387</v>
-      </c>
-      <c r="C959" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D959" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="E959" s="8">
+      <c r="B959" s="7">
+        <v>388</v>
+      </c>
+      <c r="C959" s="9" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D959" s="9" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E959" s="7">
         <v>5</v>
       </c>
-      <c r="F959" s="8">
-        <v>1</v>
-      </c>
-      <c r="G959" s="8" t="s">
-        <v>2043</v>
+      <c r="F959" s="7">
+        <v>1</v>
+      </c>
+      <c r="G959" s="9" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="960" spans="1:8" s="7" customFormat="1">
@@ -52784,19 +52774,19 @@
         <v>388</v>
       </c>
       <c r="C960" s="9" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D960" s="9" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E960" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F960" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G960" s="9" t="s">
-        <v>911</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="961" spans="1:7" s="7" customFormat="1">
@@ -52804,19 +52794,19 @@
         <v>960</v>
       </c>
       <c r="B961" s="7">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C961" s="9" t="s">
-        <v>2048</v>
+        <v>1051</v>
       </c>
       <c r="D961" s="9" t="s">
-        <v>2056</v>
+        <v>1209</v>
       </c>
       <c r="E961" s="7">
         <v>2</v>
       </c>
       <c r="F961" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G961" s="9" t="s">
         <v>1173</v>
@@ -52830,19 +52820,19 @@
         <v>389</v>
       </c>
       <c r="C962" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D962" s="9" t="s">
-        <v>1209</v>
+        <v>1115</v>
+      </c>
+      <c r="D962" s="7">
+        <v>3</v>
       </c>
       <c r="E962" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F962" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G962" s="9" t="s">
-        <v>1173</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="963" spans="1:7" s="7" customFormat="1">
@@ -52850,19 +52840,19 @@
         <v>962</v>
       </c>
       <c r="B963" s="7">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C963" s="9" t="s">
         <v>1115</v>
       </c>
       <c r="D963" s="7">
+        <v>4</v>
+      </c>
+      <c r="E963" s="7">
         <v>3</v>
       </c>
-      <c r="E963" s="7">
-        <v>4</v>
-      </c>
       <c r="F963" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G963" s="9" t="s">
         <v>2054</v>
@@ -52879,16 +52869,16 @@
         <v>1115</v>
       </c>
       <c r="D964" s="7">
+        <v>7</v>
+      </c>
+      <c r="E964" s="7">
         <v>4</v>
       </c>
-      <c r="E964" s="7">
-        <v>3</v>
-      </c>
       <c r="F964" s="7">
         <v>1</v>
       </c>
       <c r="G964" s="9" t="s">
-        <v>2055</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="965" spans="1:7" s="7" customFormat="1">
@@ -52898,14 +52888,14 @@
       <c r="B965" s="7">
         <v>390</v>
       </c>
-      <c r="C965" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D965" s="7">
-        <v>7</v>
+      <c r="C965" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D965" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E965" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F965" s="7">
         <v>1</v>
@@ -52919,22 +52909,22 @@
         <v>965</v>
       </c>
       <c r="B966" s="7">
-        <v>390</v>
-      </c>
-      <c r="C966" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D966" s="7" t="s">
-        <v>853</v>
+        <v>391</v>
+      </c>
+      <c r="C966" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D966" s="7">
+        <v>8</v>
       </c>
       <c r="E966" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F966" s="7">
         <v>1</v>
       </c>
       <c r="G966" s="9" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="967" spans="1:7" s="7" customFormat="1">
@@ -52945,13 +52935,13 @@
         <v>391</v>
       </c>
       <c r="C967" s="9" t="s">
-        <v>1115</v>
+        <v>2096</v>
       </c>
       <c r="D967" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E967" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F967" s="7">
         <v>1</v>
@@ -52967,14 +52957,14 @@
       <c r="B968" s="7">
         <v>391</v>
       </c>
-      <c r="C968" s="9" t="s">
-        <v>2097</v>
-      </c>
-      <c r="D968" s="7">
-        <v>12</v>
+      <c r="C968" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D968" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E968" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F968" s="7">
         <v>1</v>
@@ -52988,7 +52978,7 @@
         <v>968</v>
       </c>
       <c r="B969" s="7">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C969" s="7" t="s">
         <v>852</v>
@@ -53002,8 +52992,8 @@
       <c r="F969" s="7">
         <v>1</v>
       </c>
-      <c r="G969" s="9" t="s">
-        <v>2030</v>
+      <c r="G969" s="7" t="s">
+        <v>2029</v>
       </c>
     </row>
     <row r="970" spans="1:7" s="7" customFormat="1">
@@ -53011,13 +53001,13 @@
         <v>969</v>
       </c>
       <c r="B970" s="7">
-        <v>392</v>
-      </c>
-      <c r="C970" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D970" s="7" t="s">
-        <v>853</v>
+        <v>393</v>
+      </c>
+      <c r="C970" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D970" s="9" t="s">
+        <v>1938</v>
       </c>
       <c r="E970" s="7">
         <v>5</v>
@@ -53025,8 +53015,8 @@
       <c r="F970" s="7">
         <v>1</v>
       </c>
-      <c r="G970" s="7" t="s">
-        <v>2030</v>
+      <c r="G970" s="9" t="s">
+        <v>2066</v>
       </c>
     </row>
     <row r="971" spans="1:7" s="7" customFormat="1">
@@ -53034,16 +53024,16 @@
         <v>970</v>
       </c>
       <c r="B971" s="7">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C971" s="9" t="s">
         <v>1141</v>
       </c>
       <c r="D971" s="9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E971" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F971" s="7">
         <v>1</v>
@@ -53057,13 +53047,13 @@
         <v>971</v>
       </c>
       <c r="B972" s="7">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C972" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D972" s="9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E972" s="7">
         <v>2</v>
@@ -53072,7 +53062,7 @@
         <v>1</v>
       </c>
       <c r="G972" s="9" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="7" customFormat="1">
@@ -53080,13 +53070,13 @@
         <v>972</v>
       </c>
       <c r="B973" s="7">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C973" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="D973" s="9" t="s">
-        <v>1939</v>
+      <c r="D973" s="63" t="s">
+        <v>1804</v>
       </c>
       <c r="E973" s="7">
         <v>2</v>
@@ -53094,8 +53084,8 @@
       <c r="F973" s="7">
         <v>1</v>
       </c>
-      <c r="G973" s="9" t="s">
-        <v>2068</v>
+      <c r="G973" s="7" t="s">
+        <v>2081</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="7" customFormat="1">
@@ -53109,15 +53099,15 @@
         <v>1140</v>
       </c>
       <c r="D974" s="63" t="s">
-        <v>1804</v>
+        <v>1896</v>
       </c>
       <c r="E974" s="7">
         <v>2</v>
       </c>
       <c r="F974" s="7">
-        <v>1</v>
-      </c>
-      <c r="G974" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G974" s="9" t="s">
         <v>2082</v>
       </c>
     </row>
@@ -53126,22 +53116,22 @@
         <v>974</v>
       </c>
       <c r="B975" s="7">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C975" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D975" s="63" t="s">
-        <v>1897</v>
+        <v>1938</v>
       </c>
       <c r="E975" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F975" s="7">
         <v>2</v>
       </c>
       <c r="G975" s="9" t="s">
-        <v>2083</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="976" spans="1:7" s="7" customFormat="1">
@@ -53151,20 +53141,20 @@
       <c r="B976" s="7">
         <v>397</v>
       </c>
-      <c r="C976" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D976" s="63" t="s">
-        <v>1939</v>
+      <c r="C976" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D976" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E976" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F976" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G976" s="9" t="s">
-        <v>2094</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="977" spans="1:9" s="7" customFormat="1">
@@ -53172,22 +53162,22 @@
         <v>976</v>
       </c>
       <c r="B977" s="7">
-        <v>397</v>
-      </c>
-      <c r="C977" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D977" s="7" t="s">
-        <v>853</v>
+        <v>398</v>
+      </c>
+      <c r="C977" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D977" s="63" t="s">
+        <v>1938</v>
       </c>
       <c r="E977" s="7">
         <v>2</v>
       </c>
       <c r="F977" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G977" s="9" t="s">
-        <v>1827</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="978" spans="1:9" s="7" customFormat="1">
@@ -53197,44 +53187,46 @@
       <c r="B978" s="7">
         <v>398</v>
       </c>
-      <c r="C978" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D978" s="63" t="s">
-        <v>1939</v>
+      <c r="C978" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D978" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E978" s="7">
         <v>2</v>
       </c>
       <c r="F978" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G978" s="9" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="979" spans="1:9" s="7" customFormat="1">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9">
       <c r="A979" s="7">
         <v>978</v>
       </c>
-      <c r="B979" s="7">
-        <v>398</v>
-      </c>
-      <c r="C979" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D979" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="E979" s="7">
-        <v>2</v>
-      </c>
-      <c r="F979" s="7">
-        <v>1</v>
-      </c>
-      <c r="G979" s="9" t="s">
-        <v>1827</v>
-      </c>
+      <c r="B979" s="19">
+        <v>399</v>
+      </c>
+      <c r="C979" s="20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D979" s="20" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E979" s="19">
+        <v>5</v>
+      </c>
+      <c r="F979" s="19">
+        <v>1</v>
+      </c>
+      <c r="G979" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H979" s="7"/>
+      <c r="I979" s="7"/>
     </row>
     <row r="980" spans="1:9">
       <c r="A980" s="7">
@@ -53244,19 +53236,19 @@
         <v>399</v>
       </c>
       <c r="C980" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D980" s="20" t="s">
-        <v>1885</v>
+        <v>1127</v>
+      </c>
+      <c r="D980" s="20">
+        <v>5</v>
       </c>
       <c r="E980" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F980" s="19">
         <v>1</v>
       </c>
       <c r="G980" s="20" t="s">
-        <v>1865</v>
+        <v>2097</v>
       </c>
       <c r="H980" s="7"/>
       <c r="I980" s="7"/>
@@ -53266,25 +53258,29 @@
         <v>980</v>
       </c>
       <c r="B981" s="19">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C981" s="20" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D981" s="20">
-        <v>5</v>
+        <v>1140</v>
+      </c>
+      <c r="D981" s="20" t="s">
+        <v>1884</v>
       </c>
       <c r="E981" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F981" s="19">
         <v>1</v>
       </c>
       <c r="G981" s="20" t="s">
-        <v>2098</v>
-      </c>
-      <c r="H981" s="7"/>
-      <c r="I981" s="7"/>
+        <v>1875</v>
+      </c>
+      <c r="H981" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="I981" s="7" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="982" spans="1:9">
       <c r="A982" s="7">
@@ -53294,19 +53290,19 @@
         <v>400</v>
       </c>
       <c r="C982" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D982" s="20" t="s">
-        <v>1885</v>
+        <v>1127</v>
+      </c>
+      <c r="D982" s="20">
+        <v>5</v>
       </c>
       <c r="E982" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F982" s="19">
         <v>1</v>
       </c>
       <c r="G982" s="20" t="s">
-        <v>1876</v>
+        <v>2097</v>
       </c>
       <c r="H982" s="7" t="s">
         <v>863</v>
@@ -53315,33 +53311,27 @@
         <v>864</v>
       </c>
     </row>
-    <row r="983" spans="1:9">
+    <row r="983" spans="1:9" s="7" customFormat="1">
       <c r="A983" s="7">
         <v>982</v>
       </c>
       <c r="B983" s="19">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C983" s="20" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D983" s="20">
-        <v>5</v>
+        <v>1115</v>
+      </c>
+      <c r="D983" s="19">
+        <v>3</v>
       </c>
       <c r="E983" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F983" s="19">
         <v>1</v>
       </c>
       <c r="G983" s="20" t="s">
-        <v>2098</v>
-      </c>
-      <c r="H983" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="I983" s="7" t="s">
-        <v>864</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="984" spans="1:9" s="7" customFormat="1">
@@ -53349,45 +53339,45 @@
         <v>983</v>
       </c>
       <c r="B984" s="19">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C984" s="20" t="s">
         <v>1115</v>
       </c>
       <c r="D984" s="19">
+        <v>4</v>
+      </c>
+      <c r="E984" s="19">
         <v>3</v>
       </c>
-      <c r="E984" s="19">
-        <v>4</v>
-      </c>
       <c r="F984" s="19">
         <v>1</v>
       </c>
       <c r="G984" s="20" t="s">
-        <v>2054</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="985" spans="1:9" s="7" customFormat="1">
       <c r="A985" s="7">
         <v>984</v>
       </c>
-      <c r="B985" s="19">
-        <v>402</v>
-      </c>
-      <c r="C985" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D985" s="19">
-        <v>4</v>
-      </c>
-      <c r="E985" s="19">
-        <v>3</v>
-      </c>
-      <c r="F985" s="19">
-        <v>1</v>
-      </c>
-      <c r="G985" s="20" t="s">
-        <v>2105</v>
+      <c r="B985" s="7">
+        <v>403</v>
+      </c>
+      <c r="C985" s="94" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D985" s="94" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E985" s="7">
+        <v>2</v>
+      </c>
+      <c r="F985" s="7">
+        <v>1</v>
+      </c>
+      <c r="G985" s="7" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="986" spans="1:9" s="7" customFormat="1">
@@ -53398,10 +53388,10 @@
         <v>403</v>
       </c>
       <c r="C986" s="94" t="s">
-        <v>1032</v>
+        <v>1140</v>
       </c>
       <c r="D986" s="94" t="s">
-        <v>1804</v>
+        <v>1592</v>
       </c>
       <c r="E986" s="7">
         <v>2</v>
@@ -53409,7 +53399,7 @@
       <c r="F986" s="7">
         <v>1</v>
       </c>
-      <c r="G986" s="7" t="s">
+      <c r="G986" s="9" t="s">
         <v>2113</v>
       </c>
     </row>
@@ -53418,13 +53408,13 @@
         <v>986</v>
       </c>
       <c r="B987" s="7">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C987" s="94" t="s">
-        <v>1140</v>
+        <v>1032</v>
       </c>
       <c r="D987" s="94" t="s">
-        <v>1592</v>
+        <v>1804</v>
       </c>
       <c r="E987" s="7">
         <v>2</v>
@@ -53432,8 +53422,8 @@
       <c r="F987" s="7">
         <v>1</v>
       </c>
-      <c r="G987" s="9" t="s">
-        <v>2114</v>
+      <c r="G987" s="7" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="988" spans="1:9" s="7" customFormat="1">
@@ -53444,10 +53434,10 @@
         <v>404</v>
       </c>
       <c r="C988" s="94" t="s">
-        <v>1032</v>
+        <v>1140</v>
       </c>
       <c r="D988" s="94" t="s">
-        <v>1804</v>
+        <v>2114</v>
       </c>
       <c r="E988" s="7">
         <v>2</v>
@@ -53455,31 +53445,31 @@
       <c r="F988" s="7">
         <v>1</v>
       </c>
-      <c r="G988" s="7" t="s">
+      <c r="G988" s="9" t="s">
         <v>2113</v>
       </c>
     </row>
-    <row r="989" spans="1:9" s="7" customFormat="1">
+    <row r="989" spans="1:9">
       <c r="A989" s="7">
         <v>988</v>
       </c>
-      <c r="B989" s="7">
-        <v>404</v>
-      </c>
-      <c r="C989" s="94" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D989" s="94" t="s">
-        <v>2115</v>
-      </c>
-      <c r="E989" s="7">
-        <v>2</v>
-      </c>
-      <c r="F989" s="7">
-        <v>1</v>
-      </c>
-      <c r="G989" s="9" t="s">
-        <v>2114</v>
+      <c r="B989" s="8">
+        <v>405</v>
+      </c>
+      <c r="C989" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D989" s="7">
+        <v>1615248000</v>
+      </c>
+      <c r="E989" s="8">
+        <v>3</v>
+      </c>
+      <c r="F989" s="8">
+        <v>1</v>
+      </c>
+      <c r="G989" s="48" t="s">
+        <v>2119</v>
       </c>
     </row>
     <row r="990" spans="1:9">
@@ -53487,22 +53477,22 @@
         <v>989</v>
       </c>
       <c r="B990" s="8">
-        <v>405</v>
-      </c>
-      <c r="C990" s="9" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D990" s="7">
-        <v>1615248000</v>
-      </c>
-      <c r="E990" s="8">
+        <v>406</v>
+      </c>
+      <c r="C990" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D990" s="19">
         <v>3</v>
       </c>
-      <c r="F990" s="8">
-        <v>1</v>
-      </c>
-      <c r="G990" s="48" t="s">
-        <v>2120</v>
+      <c r="E990" s="19">
+        <v>4</v>
+      </c>
+      <c r="F990" s="19">
+        <v>1</v>
+      </c>
+      <c r="G990" s="20" t="s">
+        <v>2053</v>
       </c>
     </row>
     <row r="991" spans="1:9">
@@ -53513,19 +53503,19 @@
         <v>406</v>
       </c>
       <c r="C991" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D991" s="19">
-        <v>3</v>
+        <v>1140</v>
+      </c>
+      <c r="D991" s="20" t="s">
+        <v>1884</v>
       </c>
       <c r="E991" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F991" s="19">
         <v>1</v>
       </c>
       <c r="G991" s="20" t="s">
-        <v>2054</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="992" spans="1:9">
@@ -53533,22 +53523,22 @@
         <v>991</v>
       </c>
       <c r="B992" s="8">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C992" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D992" s="20" t="s">
-        <v>1885</v>
+        <v>1115</v>
+      </c>
+      <c r="D992" s="19">
+        <v>4</v>
       </c>
       <c r="E992" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F992" s="19">
         <v>1</v>
       </c>
       <c r="G992" s="20" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="993" spans="1:7">
@@ -53559,19 +53549,19 @@
         <v>407</v>
       </c>
       <c r="C993" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D993" s="19">
-        <v>4</v>
+        <v>1140</v>
+      </c>
+      <c r="D993" s="20" t="s">
+        <v>1884</v>
       </c>
       <c r="E993" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F993" s="19">
         <v>1</v>
       </c>
       <c r="G993" s="20" t="s">
-        <v>2131</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="994" spans="1:7">
@@ -53579,22 +53569,22 @@
         <v>993</v>
       </c>
       <c r="B994" s="8">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C994" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D994" s="20" t="s">
-        <v>1885</v>
+        <v>1115</v>
+      </c>
+      <c r="D994" s="19">
+        <v>3</v>
       </c>
       <c r="E994" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F994" s="19">
         <v>1</v>
       </c>
       <c r="G994" s="20" t="s">
-        <v>1861</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="995" spans="1:7">
@@ -53605,19 +53595,19 @@
         <v>408</v>
       </c>
       <c r="C995" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D995" s="19">
-        <v>3</v>
+        <v>1140</v>
+      </c>
+      <c r="D995" s="20" t="s">
+        <v>1884</v>
       </c>
       <c r="E995" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F995" s="19">
         <v>1</v>
       </c>
       <c r="G995" s="20" t="s">
-        <v>2054</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="996" spans="1:7">
@@ -53625,22 +53615,22 @@
         <v>995</v>
       </c>
       <c r="B996" s="8">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C996" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D996" s="20" t="s">
-        <v>1885</v>
+        <v>1115</v>
+      </c>
+      <c r="D996" s="19">
+        <v>4</v>
       </c>
       <c r="E996" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F996" s="19">
         <v>1</v>
       </c>
       <c r="G996" s="20" t="s">
-        <v>1863</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="997" spans="1:7">
@@ -53651,19 +53641,19 @@
         <v>409</v>
       </c>
       <c r="C997" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D997" s="19">
-        <v>4</v>
+        <v>1140</v>
+      </c>
+      <c r="D997" s="20" t="s">
+        <v>1884</v>
       </c>
       <c r="E997" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F997" s="19">
         <v>1</v>
       </c>
       <c r="G997" s="20" t="s">
-        <v>2131</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="998" spans="1:7">
@@ -53671,22 +53661,22 @@
         <v>997</v>
       </c>
       <c r="B998" s="8">
-        <v>409</v>
-      </c>
-      <c r="C998" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C998" s="8" t="s">
         <v>1140</v>
       </c>
-      <c r="D998" s="20" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E998" s="19">
-        <v>2</v>
-      </c>
-      <c r="F998" s="19">
-        <v>1</v>
-      </c>
-      <c r="G998" s="20" t="s">
-        <v>1863</v>
+      <c r="D998" s="8" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E998" s="8">
+        <v>2</v>
+      </c>
+      <c r="F998" s="8">
+        <v>1</v>
+      </c>
+      <c r="G998" s="48" t="s">
+        <v>2271</v>
       </c>
     </row>
     <row r="999" spans="1:7">
@@ -53694,13 +53684,13 @@
         <v>998</v>
       </c>
       <c r="B999" s="8">
-        <v>410</v>
-      </c>
-      <c r="C999" s="8" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D999" s="8" t="s">
-        <v>2150</v>
+        <v>411</v>
+      </c>
+      <c r="C999" s="48" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D999" s="8">
+        <v>0</v>
       </c>
       <c r="E999" s="8">
         <v>2</v>
@@ -53709,7 +53699,7 @@
         <v>1</v>
       </c>
       <c r="G999" s="48" t="s">
-        <v>2273</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1000" spans="1:7">
@@ -53717,22 +53707,22 @@
         <v>999</v>
       </c>
       <c r="B1000" s="8">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C1000" s="48" t="s">
-        <v>2167</v>
+        <v>1115</v>
       </c>
       <c r="D1000" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1000" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1000" s="8">
         <v>1</v>
       </c>
       <c r="G1000" s="48" t="s">
-        <v>2168</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1001" spans="1:7">
@@ -53740,22 +53730,22 @@
         <v>1000</v>
       </c>
       <c r="B1001" s="8">
-        <v>412</v>
-      </c>
-      <c r="C1001" s="48" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1001" s="8">
-        <v>1</v>
-      </c>
-      <c r="E1001" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1001" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1001" s="48" t="s">
-        <v>1117</v>
+        <v>413</v>
+      </c>
+      <c r="C1001" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1001" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1001" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1001" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1001" s="9" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="1002" spans="1:7">
@@ -53765,20 +53755,20 @@
       <c r="B1002" s="8">
         <v>413</v>
       </c>
-      <c r="C1002" s="7" t="s">
+      <c r="C1002" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="D1002" s="7" t="s">
-        <v>853</v>
+      <c r="D1002" s="9" t="s">
+        <v>857</v>
       </c>
       <c r="E1002" s="7">
         <v>2</v>
       </c>
       <c r="F1002" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1002" s="9" t="s">
-        <v>1827</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1003" spans="1:7">
@@ -53792,16 +53782,16 @@
         <v>852</v>
       </c>
       <c r="D1003" s="9" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E1003" s="7">
         <v>2</v>
       </c>
       <c r="F1003" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1003" s="9" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1004" spans="1:7">
@@ -53809,22 +53799,22 @@
         <v>1003</v>
       </c>
       <c r="B1004" s="8">
-        <v>413</v>
-      </c>
-      <c r="C1004" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1004" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="D1004" s="9" t="s">
-        <v>861</v>
+      <c r="D1004" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E1004" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1004" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1004" s="9" t="s">
-        <v>906</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1005" spans="1:7">
@@ -53834,20 +53824,20 @@
       <c r="B1005" s="8">
         <v>414</v>
       </c>
-      <c r="C1005" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1005" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="E1005" s="7">
-        <v>5</v>
-      </c>
-      <c r="F1005" s="7">
-        <v>1</v>
-      </c>
-      <c r="G1005" s="9" t="s">
-        <v>2175</v>
+      <c r="C1005" s="48" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1005" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1005" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1005" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1005" s="48" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="1006" spans="1:7">
@@ -53861,16 +53851,16 @@
         <v>1115</v>
       </c>
       <c r="D1006" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1006" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1006" s="8">
         <v>1</v>
       </c>
       <c r="G1006" s="48" t="s">
-        <v>1117</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1007" spans="1:7">
@@ -53878,22 +53868,22 @@
         <v>1006</v>
       </c>
       <c r="B1007" s="8">
-        <v>414</v>
-      </c>
-      <c r="C1007" s="48" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1007" s="8">
-        <v>3</v>
-      </c>
-      <c r="E1007" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1007" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1007" s="48" t="s">
-        <v>1128</v>
+        <v>415</v>
+      </c>
+      <c r="C1007" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1007" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1007" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1007" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1007" s="9" t="s">
+        <v>2173</v>
       </c>
     </row>
     <row r="1008" spans="1:7">
@@ -53903,20 +53893,20 @@
       <c r="B1008" s="8">
         <v>415</v>
       </c>
-      <c r="C1008" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1008" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="E1008" s="7">
-        <v>5</v>
-      </c>
-      <c r="F1008" s="7">
-        <v>1</v>
-      </c>
-      <c r="G1008" s="9" t="s">
-        <v>2175</v>
+      <c r="C1008" s="48" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1008" s="8">
+        <v>4</v>
+      </c>
+      <c r="E1008" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1008" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1008" s="48" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="1009" spans="1:7">
@@ -53930,16 +53920,16 @@
         <v>1115</v>
       </c>
       <c r="D1009" s="8">
+        <v>7</v>
+      </c>
+      <c r="E1009" s="8">
         <v>4</v>
       </c>
-      <c r="E1009" s="8">
-        <v>3</v>
-      </c>
       <c r="F1009" s="8">
         <v>1</v>
       </c>
       <c r="G1009" s="48" t="s">
-        <v>1134</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1010" spans="1:7">
@@ -53947,22 +53937,22 @@
         <v>1009</v>
       </c>
       <c r="B1010" s="8">
-        <v>415</v>
-      </c>
-      <c r="C1010" s="48" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1010" s="8">
-        <v>7</v>
-      </c>
-      <c r="E1010" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1010" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1010" s="48" t="s">
-        <v>2176</v>
+        <v>416</v>
+      </c>
+      <c r="C1010" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1010" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1010" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1010" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1010" s="9" t="s">
+        <v>2173</v>
       </c>
     </row>
     <row r="1011" spans="1:7">
@@ -53972,19 +53962,19 @@
       <c r="B1011" s="8">
         <v>416</v>
       </c>
-      <c r="C1011" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1011" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="E1011" s="7">
-        <v>5</v>
-      </c>
-      <c r="F1011" s="7">
-        <v>1</v>
-      </c>
-      <c r="G1011" s="9" t="s">
+      <c r="C1011" s="48" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1011" s="8">
+        <v>8</v>
+      </c>
+      <c r="E1011" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1011" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1011" s="48" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -53999,16 +53989,16 @@
         <v>1115</v>
       </c>
       <c r="D1012" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1012" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1012" s="8">
         <v>1</v>
       </c>
       <c r="G1012" s="48" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1013" spans="1:7">
@@ -54016,22 +54006,22 @@
         <v>1012</v>
       </c>
       <c r="B1013" s="8">
-        <v>416</v>
-      </c>
-      <c r="C1013" s="48" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1013" s="8">
-        <v>12</v>
+        <v>417</v>
+      </c>
+      <c r="C1013" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1013" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E1013" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1013" s="8">
         <v>1</v>
       </c>
-      <c r="G1013" s="48" t="s">
-        <v>2178</v>
+      <c r="G1013" s="8" t="s">
+        <v>2029</v>
       </c>
     </row>
     <row r="1014" spans="1:7">
@@ -54041,43 +54031,43 @@
       <c r="B1014" s="8">
         <v>417</v>
       </c>
-      <c r="C1014" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1014" s="7" t="s">
-        <v>853</v>
+      <c r="C1014" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1014" s="8">
+        <v>0</v>
       </c>
       <c r="E1014" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1014" s="8">
         <v>1</v>
       </c>
       <c r="G1014" s="8" t="s">
-        <v>2030</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1015" spans="1:7">
       <c r="A1015" s="7">
         <v>1014</v>
       </c>
-      <c r="B1015" s="8">
-        <v>417</v>
-      </c>
-      <c r="C1015" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="D1015" s="8">
-        <v>0</v>
-      </c>
-      <c r="E1015" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1015" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1015" s="8" t="s">
-        <v>2183</v>
+      <c r="B1015" s="91">
+        <v>418</v>
+      </c>
+      <c r="C1015" s="91" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1015" s="91" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1015" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1015" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1015" s="92" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="1016" spans="1:7">
@@ -54087,20 +54077,20 @@
       <c r="B1016" s="91">
         <v>418</v>
       </c>
-      <c r="C1016" s="91" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1016" s="91" t="s">
-        <v>853</v>
+      <c r="C1016" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1016" s="92" t="s">
+        <v>1884</v>
       </c>
       <c r="E1016" s="91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1016" s="91">
         <v>1</v>
       </c>
       <c r="G1016" s="92" t="s">
-        <v>1827</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1017" spans="1:7">
@@ -54111,19 +54101,19 @@
         <v>418</v>
       </c>
       <c r="C1017" s="92" t="s">
-        <v>1140</v>
+        <v>852</v>
       </c>
       <c r="D1017" s="92" t="s">
-        <v>1885</v>
+        <v>857</v>
       </c>
       <c r="E1017" s="91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1017" s="91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1017" s="92" t="s">
-        <v>2226</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1018" spans="1:7">
@@ -54134,19 +54124,19 @@
         <v>418</v>
       </c>
       <c r="C1018" s="92" t="s">
-        <v>852</v>
+        <v>1140</v>
       </c>
       <c r="D1018" s="92" t="s">
-        <v>857</v>
+        <v>1884</v>
       </c>
       <c r="E1018" s="91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1018" s="91">
         <v>2</v>
       </c>
       <c r="G1018" s="92" t="s">
-        <v>910</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1019" spans="1:7">
@@ -54157,19 +54147,19 @@
         <v>418</v>
       </c>
       <c r="C1019" s="92" t="s">
-        <v>1140</v>
+        <v>852</v>
       </c>
       <c r="D1019" s="92" t="s">
-        <v>1885</v>
+        <v>861</v>
       </c>
       <c r="E1019" s="91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1019" s="91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1019" s="92" t="s">
-        <v>2226</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1020" spans="1:7">
@@ -54180,19 +54170,19 @@
         <v>418</v>
       </c>
       <c r="C1020" s="92" t="s">
-        <v>852</v>
+        <v>1140</v>
       </c>
       <c r="D1020" s="92" t="s">
-        <v>861</v>
+        <v>1884</v>
       </c>
       <c r="E1020" s="91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1020" s="91">
         <v>3</v>
       </c>
       <c r="G1020" s="92" t="s">
-        <v>906</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1021" spans="1:7">
@@ -54200,22 +54190,22 @@
         <v>1020</v>
       </c>
       <c r="B1021" s="91">
-        <v>418</v>
-      </c>
-      <c r="C1021" s="92" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D1021" s="92" t="s">
-        <v>1885</v>
+        <v>419</v>
+      </c>
+      <c r="C1021" s="91" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1021" s="91" t="s">
+        <v>853</v>
       </c>
       <c r="E1021" s="91">
         <v>5</v>
       </c>
       <c r="F1021" s="91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1021" s="92" t="s">
-        <v>2226</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1022" spans="1:7">
@@ -54225,20 +54215,20 @@
       <c r="B1022" s="91">
         <v>419</v>
       </c>
-      <c r="C1022" s="91" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1022" s="91" t="s">
-        <v>853</v>
+      <c r="C1022" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1022" s="91">
+        <v>1</v>
       </c>
       <c r="E1022" s="91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1022" s="91">
         <v>1</v>
       </c>
       <c r="G1022" s="92" t="s">
-        <v>2030</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1023" spans="1:7">
@@ -54252,16 +54242,16 @@
         <v>1115</v>
       </c>
       <c r="D1023" s="91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1023" s="91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1023" s="91">
         <v>1</v>
       </c>
       <c r="G1023" s="92" t="s">
-        <v>1117</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1024" spans="1:7">
@@ -54272,19 +54262,19 @@
         <v>419</v>
       </c>
       <c r="C1024" s="92" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1024" s="91">
-        <v>3</v>
+        <v>1140</v>
+      </c>
+      <c r="D1024" s="92" t="s">
+        <v>1884</v>
       </c>
       <c r="E1024" s="91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1024" s="91">
         <v>1</v>
       </c>
       <c r="G1024" s="92" t="s">
-        <v>1128</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1025" spans="1:7">
@@ -54292,13 +54282,13 @@
         <v>1024</v>
       </c>
       <c r="B1025" s="91">
-        <v>419</v>
-      </c>
-      <c r="C1025" s="92" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D1025" s="92" t="s">
-        <v>1885</v>
+        <v>420</v>
+      </c>
+      <c r="C1025" s="91" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1025" s="91" t="s">
+        <v>853</v>
       </c>
       <c r="E1025" s="91">
         <v>5</v>
@@ -54307,7 +54297,7 @@
         <v>1</v>
       </c>
       <c r="G1025" s="92" t="s">
-        <v>2226</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1026" spans="1:7">
@@ -54317,20 +54307,20 @@
       <c r="B1026" s="91">
         <v>420</v>
       </c>
-      <c r="C1026" s="91" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1026" s="91" t="s">
-        <v>853</v>
+      <c r="C1026" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1026" s="91">
+        <v>4</v>
       </c>
       <c r="E1026" s="91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1026" s="91">
         <v>1</v>
       </c>
       <c r="G1026" s="92" t="s">
-        <v>2030</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1027" spans="1:7">
@@ -54344,16 +54334,16 @@
         <v>1115</v>
       </c>
       <c r="D1027" s="91">
+        <v>7</v>
+      </c>
+      <c r="E1027" s="91">
         <v>4</v>
       </c>
-      <c r="E1027" s="91">
-        <v>3</v>
-      </c>
       <c r="F1027" s="91">
         <v>1</v>
       </c>
       <c r="G1027" s="92" t="s">
-        <v>1134</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1028" spans="1:7">
@@ -54364,19 +54354,19 @@
         <v>420</v>
       </c>
       <c r="C1028" s="92" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1028" s="91">
-        <v>7</v>
+        <v>1140</v>
+      </c>
+      <c r="D1028" s="92" t="s">
+        <v>1884</v>
       </c>
       <c r="E1028" s="91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1028" s="91">
         <v>1</v>
       </c>
       <c r="G1028" s="92" t="s">
-        <v>2176</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1029" spans="1:7">
@@ -54384,13 +54374,13 @@
         <v>1028</v>
       </c>
       <c r="B1029" s="91">
-        <v>420</v>
-      </c>
-      <c r="C1029" s="92" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D1029" s="92" t="s">
-        <v>1885</v>
+        <v>421</v>
+      </c>
+      <c r="C1029" s="91" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1029" s="91" t="s">
+        <v>853</v>
       </c>
       <c r="E1029" s="91">
         <v>5</v>
@@ -54399,7 +54389,7 @@
         <v>1</v>
       </c>
       <c r="G1029" s="92" t="s">
-        <v>2226</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1030" spans="1:7">
@@ -54409,20 +54399,20 @@
       <c r="B1030" s="91">
         <v>421</v>
       </c>
-      <c r="C1030" s="91" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1030" s="91" t="s">
-        <v>853</v>
+      <c r="C1030" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1030" s="91">
+        <v>8</v>
       </c>
       <c r="E1030" s="91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1030" s="91">
         <v>1</v>
       </c>
       <c r="G1030" s="92" t="s">
-        <v>2030</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1031" spans="1:7">
@@ -54436,16 +54426,16 @@
         <v>1115</v>
       </c>
       <c r="D1031" s="91">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1031" s="91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1031" s="91">
         <v>1</v>
       </c>
       <c r="G1031" s="92" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1032" spans="1:7">
@@ -54456,19 +54446,19 @@
         <v>421</v>
       </c>
       <c r="C1032" s="92" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1032" s="91">
-        <v>12</v>
+        <v>1140</v>
+      </c>
+      <c r="D1032" s="92" t="s">
+        <v>1884</v>
       </c>
       <c r="E1032" s="91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1032" s="91">
         <v>1</v>
       </c>
       <c r="G1032" s="92" t="s">
-        <v>2178</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1033" spans="1:7">
@@ -54476,13 +54466,13 @@
         <v>1032</v>
       </c>
       <c r="B1033" s="91">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C1033" s="92" t="s">
         <v>1140</v>
       </c>
       <c r="D1033" s="92" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E1033" s="91">
         <v>5</v>
@@ -54491,21 +54481,21 @@
         <v>1</v>
       </c>
       <c r="G1033" s="92" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1034" spans="1:7">
-      <c r="A1034" s="8">
+      <c r="A1034" s="7">
         <v>1033</v>
       </c>
       <c r="B1034" s="91">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C1034" s="92" t="s">
         <v>1140</v>
       </c>
       <c r="D1034" s="92" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E1034" s="91">
         <v>5</v>
@@ -54514,21 +54504,21 @@
         <v>1</v>
       </c>
       <c r="G1034" s="92" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1035" spans="1:7">
-      <c r="A1035" s="8">
+      <c r="A1035" s="7">
         <v>1034</v>
       </c>
       <c r="B1035" s="91">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C1035" s="92" t="s">
         <v>1140</v>
       </c>
       <c r="D1035" s="92" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E1035" s="91">
         <v>5</v>
@@ -54537,7 +54527,7 @@
         <v>1</v>
       </c>
       <c r="G1035" s="92" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1036" spans="1:7">
@@ -54545,13 +54535,13 @@
         <v>1035</v>
       </c>
       <c r="B1036" s="91">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C1036" s="92" t="s">
         <v>1140</v>
       </c>
       <c r="D1036" s="92" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E1036" s="91">
         <v>5</v>
@@ -54560,352 +54550,329 @@
         <v>1</v>
       </c>
       <c r="G1036" s="92" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1037" spans="1:7">
-      <c r="A1037" s="8">
+      <c r="A1037" s="7">
         <v>1036</v>
       </c>
       <c r="B1037" s="91">
         <v>425</v>
       </c>
       <c r="C1037" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1037" s="91">
+        <v>5</v>
+      </c>
+      <c r="E1037" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1037" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1037" s="92" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7">
+      <c r="A1038" s="7">
+        <v>1037</v>
+      </c>
+      <c r="B1038" s="95">
+        <v>426</v>
+      </c>
+      <c r="C1038" s="96" t="s">
         <v>1140</v>
       </c>
-      <c r="D1037" s="92" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E1037" s="91">
+      <c r="D1038" s="96" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1038" s="95">
         <v>5</v>
       </c>
-      <c r="F1037" s="91">
-        <v>1</v>
-      </c>
-      <c r="G1037" s="92" t="s">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:7">
-      <c r="A1038" s="8">
-        <v>1037</v>
-      </c>
-      <c r="B1038" s="91">
-        <v>425</v>
-      </c>
-      <c r="C1038" s="92" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1038" s="91">
-        <v>5</v>
-      </c>
-      <c r="E1038" s="91">
-        <v>2</v>
-      </c>
-      <c r="F1038" s="91">
-        <v>1</v>
-      </c>
-      <c r="G1038" s="92" t="s">
-        <v>2242</v>
+      <c r="F1038" s="95">
+        <v>1</v>
+      </c>
+      <c r="G1038" s="96" t="s">
+        <v>2224</v>
       </c>
     </row>
     <row r="1039" spans="1:7">
-      <c r="A1039" s="8">
+      <c r="A1039" s="7">
         <v>1038</v>
       </c>
       <c r="B1039" s="95">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C1039" s="96" t="s">
         <v>1140</v>
       </c>
       <c r="D1039" s="96" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E1039" s="95">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1039" s="95">
         <v>1</v>
       </c>
       <c r="G1039" s="96" t="s">
-        <v>2226</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1040" spans="1:7">
-      <c r="A1040" s="8">
+      <c r="A1040" s="7">
         <v>1039</v>
       </c>
-      <c r="B1040" s="95">
-        <v>427</v>
-      </c>
-      <c r="C1040" s="96" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D1040" s="96" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E1040" s="95">
-        <v>2</v>
-      </c>
-      <c r="F1040" s="95">
-        <v>1</v>
-      </c>
-      <c r="G1040" s="96" t="s">
-        <v>2248</v>
+      <c r="B1040" s="91">
+        <v>428</v>
+      </c>
+      <c r="C1040" s="92" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D1040" s="91">
+        <v>3</v>
+      </c>
+      <c r="E1040" s="91">
+        <v>4</v>
+      </c>
+      <c r="F1040" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1040" s="92" t="s">
+        <v>2261</v>
       </c>
     </row>
     <row r="1041" spans="1:7">
-      <c r="A1041" s="8">
+      <c r="A1041" s="7">
         <v>1040</v>
       </c>
       <c r="B1041" s="91">
         <v>428</v>
       </c>
       <c r="C1041" s="92" t="s">
-        <v>2261</v>
-      </c>
-      <c r="D1041" s="91">
+        <v>1140</v>
+      </c>
+      <c r="D1041" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1041" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1041" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1041" s="92" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7">
+      <c r="A1042" s="7">
+        <v>1041</v>
+      </c>
+      <c r="B1042" s="91">
+        <v>429</v>
+      </c>
+      <c r="C1042" s="92" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D1042" s="91">
+        <v>4</v>
+      </c>
+      <c r="E1042" s="91">
         <v>3</v>
       </c>
-      <c r="E1041" s="91">
-        <v>4</v>
-      </c>
-      <c r="F1041" s="91">
-        <v>1</v>
-      </c>
-      <c r="G1041" s="92" t="s">
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:7">
-      <c r="A1042" s="8">
-        <v>1041</v>
-      </c>
-      <c r="B1042" s="91">
-        <v>428</v>
-      </c>
-      <c r="C1042" s="92" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D1042" s="92" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E1042" s="91">
-        <v>5</v>
-      </c>
       <c r="F1042" s="91">
         <v>1</v>
       </c>
       <c r="G1042" s="92" t="s">
-        <v>2226</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1043" spans="1:7">
-      <c r="A1043" s="8">
+      <c r="A1043" s="7">
         <v>1042</v>
       </c>
       <c r="B1043" s="91">
         <v>429</v>
       </c>
       <c r="C1043" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1043" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1043" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1043" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1043" s="92" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7">
+      <c r="A1044" s="7">
+        <v>1043</v>
+      </c>
+      <c r="B1044" s="91">
+        <v>430</v>
+      </c>
+      <c r="C1044" s="92" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D1044" s="91">
+        <v>3</v>
+      </c>
+      <c r="E1044" s="91">
+        <v>4</v>
+      </c>
+      <c r="F1044" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1044" s="92" t="s">
         <v>2261</v>
       </c>
-      <c r="D1043" s="91">
-        <v>4</v>
-      </c>
-      <c r="E1043" s="91">
-        <v>3</v>
-      </c>
-      <c r="F1043" s="91">
-        <v>1</v>
-      </c>
-      <c r="G1043" s="92" t="s">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:7">
-      <c r="A1044" s="8">
-        <v>1043</v>
-      </c>
-      <c r="B1044" s="91">
-        <v>429</v>
-      </c>
-      <c r="C1044" s="92" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D1044" s="92" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E1044" s="91">
-        <v>5</v>
-      </c>
-      <c r="F1044" s="91">
-        <v>1</v>
-      </c>
-      <c r="G1044" s="92" t="s">
-        <v>2226</v>
-      </c>
     </row>
     <row r="1045" spans="1:7">
-      <c r="A1045" s="8">
+      <c r="A1045" s="7">
         <v>1044</v>
       </c>
       <c r="B1045" s="91">
         <v>430</v>
       </c>
       <c r="C1045" s="92" t="s">
-        <v>2261</v>
-      </c>
-      <c r="D1045" s="91">
+        <v>1140</v>
+      </c>
+      <c r="D1045" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1045" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1045" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1045" s="92" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7">
+      <c r="A1046" s="7">
+        <v>1045</v>
+      </c>
+      <c r="B1046" s="91">
+        <v>431</v>
+      </c>
+      <c r="C1046" s="92" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D1046" s="91">
+        <v>4</v>
+      </c>
+      <c r="E1046" s="91">
         <v>3</v>
       </c>
-      <c r="E1045" s="91">
-        <v>4</v>
-      </c>
-      <c r="F1045" s="91">
-        <v>1</v>
-      </c>
-      <c r="G1045" s="92" t="s">
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:7">
-      <c r="A1046" s="8">
-        <v>1045</v>
-      </c>
-      <c r="B1046" s="91">
-        <v>430</v>
-      </c>
-      <c r="C1046" s="92" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D1046" s="92" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E1046" s="91">
-        <v>2</v>
-      </c>
       <c r="F1046" s="91">
         <v>1</v>
       </c>
       <c r="G1046" s="92" t="s">
-        <v>2281</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1047" spans="1:7">
-      <c r="A1047" s="8">
+      <c r="A1047" s="7">
         <v>1046</v>
       </c>
       <c r="B1047" s="91">
         <v>431</v>
       </c>
       <c r="C1047" s="92" t="s">
-        <v>2261</v>
-      </c>
-      <c r="D1047" s="91">
-        <v>4</v>
+        <v>1140</v>
+      </c>
+      <c r="D1047" s="92" t="s">
+        <v>1884</v>
       </c>
       <c r="E1047" s="91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1047" s="91">
         <v>1</v>
       </c>
       <c r="G1047" s="92" t="s">
-        <v>2264</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1048" spans="1:7">
-      <c r="A1048" s="8">
+      <c r="A1048" s="7">
         <v>1047</v>
       </c>
-      <c r="B1048" s="91">
-        <v>431</v>
-      </c>
-      <c r="C1048" s="92" t="s">
+      <c r="B1048" s="8">
+        <v>432</v>
+      </c>
+      <c r="C1048" s="8" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D1048" s="8" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E1048" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1048" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1048" s="8" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7">
+      <c r="A1049" s="7">
+        <v>1048</v>
+      </c>
+      <c r="B1049" s="8">
+        <v>433</v>
+      </c>
+      <c r="C1049" s="92" t="s">
         <v>1140</v>
       </c>
-      <c r="D1048" s="92" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E1048" s="91">
-        <v>2</v>
-      </c>
-      <c r="F1048" s="91">
-        <v>1</v>
-      </c>
-      <c r="G1048" s="92" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:7">
-      <c r="A1049" s="8">
-        <v>1048</v>
-      </c>
-      <c r="B1049" s="8">
-        <v>432</v>
-      </c>
-      <c r="C1049" s="8" t="s">
-        <v>2268</v>
-      </c>
-      <c r="D1049" s="8" t="s">
-        <v>2270</v>
-      </c>
-      <c r="E1049" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1049" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1049" s="8" t="s">
-        <v>2271</v>
+      <c r="D1049" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1049" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1049" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1049" s="92" t="s">
+        <v>2278</v>
       </c>
     </row>
     <row r="1050" spans="1:7">
-      <c r="A1050" s="8">
+      <c r="A1050" s="7">
         <v>1049</v>
       </c>
       <c r="B1050" s="8">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C1050" s="92" t="s">
         <v>1140</v>
       </c>
       <c r="D1050" s="92" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E1050" s="91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1050" s="91">
         <v>1</v>
       </c>
       <c r="G1050" s="92" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:7">
-      <c r="A1051" s="8">
-        <v>1050</v>
-      </c>
-      <c r="B1051" s="8">
-        <v>434</v>
-      </c>
-      <c r="C1051" s="92" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D1051" s="92" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E1051" s="91">
-        <v>5</v>
-      </c>
-      <c r="F1051" s="91">
-        <v>1</v>
-      </c>
-      <c r="G1051" s="92" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
   </sheetData>
@@ -54955,7 +54922,7 @@
         <v>1033</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -54963,13 +54930,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -55009,7 +54976,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>884</v>
@@ -55038,7 +55005,7 @@
         <v>884</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -55055,13 +55022,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -55070,7 +55037,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -55084,7 +55051,7 @@
         <v>1065</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -55093,7 +55060,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -55101,13 +55068,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -55116,7 +55083,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -55124,13 +55091,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -55139,7 +55106,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -55147,13 +55114,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -55162,7 +55129,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -55170,13 +55137,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -55185,7 +55152,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -55193,13 +55160,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -55208,7 +55175,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -55216,13 +55183,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -55231,7 +55198,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -55239,13 +55206,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -55254,7 +55221,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -55262,13 +55229,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -55277,7 +55244,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -55285,13 +55252,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -55300,7 +55267,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -55308,22 +55275,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>2205</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>2206</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>2207</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>2208</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -55331,13 +55298,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -55346,7 +55313,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -55354,13 +55321,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -55369,7 +55336,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
   </sheetData>
